--- a/outputbook5 - Kopie.xlsx
+++ b/outputbook5 - Kopie.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="26235" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="26235" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
   <si>
     <t xml:space="preserve">Ein 1 m langes Brett soll in neun gleich lange Stücke zerschnitten werden. Wie lang ist jedes Stück? Wie viele Schnitte sind nötig? </t>
   </si>
@@ -93,477 +93,36 @@
     <t xml:space="preserve">Das Herz ist ein Wunder an Ausdauer und Kraft. Es pumpt stetig Blut durch die Adern und erhält uns so am Leben. In einem Biologiebuch steht: Bei einem Puls von 70 Schlägen pro Minute pumpt das Herz eines Menschen ca. 5 Liter Blut in einer Minute durch den Körper a) Wie viel Liter Blut pumpt das Herz in einer Stunde bzw. an einem Tag bei einem Puls von 70 durch den Körper? b) Bei großen Anstrengungen, z. B. beim Sport, kann der Puls in besonderen Fällen 210 erreichen. Wie viel Liter Blut pumpt das Herz dann pro Minute? </t>
   </si>
   <si>
-    <t xml:space="preserve">Schätze bei allen Fragen, ob die Antwort eine Zahl im Zehner-, Hunderter-, Tausender- Zehntausender-, Hunderttausender- oder Millionenbereich ist. Rechne dann genau. a) Ein Python kann in drei Monaten bis zu 75 Mäuse fressen. Wie viele Mäuse kann ein Python in drei Jahren fressen? b) Täglich verlieben sich in Deutschland 2806 Fünftklässler. Wie viele Fünftklässler ver- lieben sich in einer Woche? c) In Quintalien werden täglich im Schnitt 53 Zwillingspaare geboren. Wie viele Zwil- linge werden in einem Jahr geboren? d) Max Knaller, der bekannte Fußballspieler, verdient jährlich 4 Millionen €, Stefan An- fang aus demselben Team nur 400000 €. Wie viel verdient Max, wie viel Stefan an einem Tag? e) Ein Jumbo-Jet kann bis zu 2100001 Treib- Stoff tanken. In einen Autotank passen ungefähr 70 Wie viele Autos könnte man mit der Treibstoffmenge eines Jumbos be- tanken? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berechne die Kubikzahlen: a) 23 b) 33 c) 43 e) 73 h) 103 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Deutschland sind alle Arzneimittel unter der Pharmazentralnummer (PZN) registriert. Diese Nummer ist siebenstellig. Die ersten 6 Ziffern verschlüsseln Informationen über Packungsgröße und Wirkstoffstärke. Die letzte Ziffer ist eine Prüfziffer. Berechnung der Prüfziffer : PZN -149523 9 1. Die Ziffern mit 2, 3, 4, 5, 6 und 7 multiplizieren und die Produkte addieren 1-2+4-3+9-4+5-5+2-6+3. 7 36 + 12+21 = 108 2. Die Summe durch 1 1 teilen; der Rest ist die Prüfziffer 108 : 1 1 = 9+9 : 11; Der Rest ist 9, die Prüfziffer ist also 9. a) Berechne die Prüfziffern fur die folgenden PZN: (1) Hustenbonbon: PZN -339681 (2) Inhalationslösung: PZN -166463• b) Suche zu Hause nach Medikamentenpackungen und rechne die PZN - 1495239 Prüfziffern nach. c) Die Rechnung oben lässt sich auch in einem Rechenausdruck aufschreiben: (1 11 = (2 + 12 36 25 12 21) : 11 = 108 : Kannst du begründen, wozu man die Klammer braucht? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Europa misst man Temperaturen in Grad Celsius (oc). In den USA wird die Tempera- tur in Grad Fahrenheit (0 F) gemessen. Tanjas Brieffreundin Carol hat geschrieben, dass es in diesem Sommer in New York 113 OF waren. Kann das sein? Tanjas Mutter weiß, wie man die Temperatur in oc umrechnen kann: „Von der Temperatur in OF musst du 32 subtrahieren, das Ergebnis musst du durch 9 teilen. Dann musst du noch mit 5 multiplizieren." Die Umrechnungsvorschrift kannst du auf verschiedene Arten übersichtlich schreiben: Rechenausdruck (113-32) : 9-5 Ablaufdiagramm Rechenbaum 113 81 32 9 a) Rechne 1 13 OF um in 0 C. Ganz schön heiß in New York, oder? b) Wie warm wird es, wenn der Wetterbericht 68 OF (41 OF, 32 OF) vorhersagt? c) Überlege dir selbst Temperaturen in OF und rechne sie in oc um. Bei welchen Tempe- raturen gelingt das gut, wann hast du Probleme? d) Tanja möchte für ihren Antwortbrief die aktuelle Temperatur von 25 oc in OF umrech nen. Findest du eine passende Umrechnungsvorschrift? Kommen in einem Rechenausdruck verschiedene Rechenarten vor, so muss man die Reihenfolge festlegen, in der gerechnet wird. vorfahrtsregeln beim gemischten Rechnen 1. Nur Strichrechnungen (nur Punktrechnungen): Rechnet man von links nach rechts, so macht man nichts falsch. 2. Punkt- vor Strichrechnungen Punktrechnungen werden vor Strich- rechnungen ausgeführt. 3. Klammerregel Was in Klammern steht, wird zuerst ausgerechnet. 37 19 13+ 8 18+12 31 9 54 67 • (25 9 72 16) 37-18+ 12 19+12 31 13+6-9 13+ 54 8. (25-16) 8-9 72 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berec ne mog IC st gesc IC 18 - 8. Lösung: Sollst du zwei Zahlen miteinander multiplizieren, so kannst du eine Zahl zerlegen, das heißt, als Summe oder Differenz von zwei Zahlen schreiben. 18 • (20-2) • 8 = 20. 8-2-8 - 160 16 - 144 18 als Differenz von 20 und 2 schreiben ausmultiplizieren Punkt- vor Strichrechnung </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berec ne möglichst geschickt 3 • 83 +7 • 83. Lösung: Werden mehrere Produkte addiert, die einen gleichen Faktor haben, so kann man den Faktor ausklammern. Das erleichtert manchmal die Rechnung. 3 • 83+7 • 83 = (3+7) • 83 83 ausklammern = 10. 83 = 830 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berechne den Rechenausdruck (7 + 23) • 5+12. Beachte die Vorfahrtsregeln. Lösung: Rechenbaum 7 5 162 12 Rechnung (7 + 23) • 5 + 1 2 Klammern zuerst 23 30 150 =30-5+12 = 150+12 = 162 Punkt- vor Strichrechnung Man kann den Rechenausdruck auch als Text formulieren: Addiere 7 und 23, multipliziere die Summe mit 5 und addiere zu dem Produkt 12. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechenbäume können beim Berechnen von Rechenausdrücken sehr hilfreich sein. Berechne die Rechenausdrücke schrittweise oder mithilfe eines Rechenbaums. Beispiel C kann helfen. a) 17+8-4 c) 33 (16+24) e) (23- 15) • 7+4 g) (19-2-9).6 i) b) (29-9) • 6 d) 40,5+3-5 f) 18+9 • 2+23 h) 11-10- 100 (16+4) • (58 - 8) +25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berechne unter Beachtung der Vorfahrtsregeln. a) (17-5+3). 12 c) (16 • 4—6. 9) . 4 — 20 e) (17-8- 99) • (34 - 16 • 2) g) 480-45 - (23 + 12 • 4) b) (104+36 : 6). 100 d) (204- 11 • 9) : 3+16 f) 33 + (88 - 22 • 2) - (27 - 15) h) 27 • (16 - 9) - (96 - 12 • 8). 123 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Übersetze die Rechenbäume in Rechenausdrücke und berechne dann schrittweise. a) 18 d) 16 b) 84 48 14 51 16 31 33 c) 06 96 15 f) 16 48 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechne wie im Beispiel. Welche Rechnungen schaffst du im Kopf? a) 68 : 4 d) 126 : 3 g) 95 : 5 b) 69 . 3 e) 212 h) 535 : 5 c) 84 : 6 f) 168 i) 264 : 8 Dividieren durch Verteilen 96 : : 4 = 20 + 4 24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechne möglichst geschickt. Oft ist es sinnvoll, das Verteilungsgesetz anzuwenden. Die Beispiele A und B (Seite 75) können helfen. a) 14 • 23+6 • 23 d) 8 (7+9) g) (24+36) : 6 b) 7 • (34+ 16) e) (20-3) • 9 h) 117:9+153.9 c) 4. 17+9. 17+7 • 17 f) 24 • 12-24-2 i) (280-56) : 7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Überprüfe mit der Stoppuhr, ob du alle Aufgaben aus a) in weniger als 3 Minuten richtig lösen kannst. Wie lange brauchst du für die Aufgaben in b)? a) 16 . 4 19. 4 13•8 17-9 76:4 84:7 b) 23. 5 34 • 7 165:5 88-3 756:7 74-4 248 : 8 459 : 9 126 : 6 792 : 8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irina und Robin „basteln" aus Zahlen, Rechen zeichen und Klammern verschiedene Rechen ausdrücke. Sie wollen den Rechenausdruck finden, der die größte Zahl liefert. Welcher ist es? 21-3+17 17-21 +3 (17+3).21 (21 + 3).17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aus Bausteinen sollen verschiedene Rechen- ausdrücke gelegt werden. Dabei muss jeder Stein genau einmal verwendet werden. a) Berechne das Ergebnis aus dem gelegten Rechenausdruck. Wie viele weitere Re- chenausdrücke mit anderem Ergebnis findest du mit den gleichen Bausteinen? b) Finde mit den Teilen den Rechenausdruck, der die größte (kleinste) Zahl liefert. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcher Text passt zu welchem Rechenausdruck? Ordne zu und berechne. (A) Multipliziere die Differenz von 1 70 und 5 mit der Summe von 18 und 6. (B) Subtrahiere das Produkt von 5 und der Summe von 18 und 6 von 170. (C) Subtrahiere das Produkt von 18 und 5 von 1 70 und addiere dann 6. (D) Multipliziere die Differenz von 170 und 5 mit 18 und addiere dann 6. (1) 170-5.(18+6) (2) (170-5). (18+6) (3) (170-5).18+6 (4) 170-5-18+6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechenausdrücke kann man auch mit Worten aufschreiben. „Übersetze" die Texte in einen Rechenausdruck mit mathematischen Zeichen. Rechne. a) Multipliziere die Summe von 13 und 23 mit 12. Subtrahiere von dem Produkt die Zahl 28. b) Multipliziere die Summe von 18 und 36 mit der Differenz von 26 und 14. c) Dividiere die Summe von 36 und 44 durch 5. Addiere zu dem Quotienten das Produkt aus 6 und 5. d) Multipliziere die Summe aus 36 und 54 mit der Differenz aus 36 und 29. e) Addiere 15 zu dem Produkt aus 10 und 15. Subtrahiere von der Summe die Zahl 100. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Übersetze die Rechenausdrücke in Text und berechne sie. a) 6-21 + 15 d) (21 - 15) • (34+12) b) 16 • (21 + 15) e) (31 -12-2).4 c) (123 - 23) • 50 f) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-16- 37 c) 5. (8 - 2). 120 ..-7=17 9-6=39 3 9 = 27 Die gesuchte Zahl ist 5. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gib dem Zahlenautomat Futter. Je nachdem, welche Zahl du eingibst, kommt ein entsprechendes Ergebnis heraus. Berech ne den Rechenausdruck für verschiedene Eingaben. a) (.+6).3-16 b) (2..+4).3 c) (24 10)+5.. Eingabe: O, 1, 2, 3, 4, 5 Eingabe: O, 1, 2, 10, 20 Eingabe: 1, 2, 3, 4 Eingabe: 1, 2, 3, 4, 5 4 Eingabe 3-16 Ausgabe 14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Übersetze den Text in einen Rechenausdruck oder einen Rechenbaum. Finde die feh- lende Zahl durch Ausprobieren. a) Die Summe der gesuchten Zahl und 14 beträgt 32. b) Addiere zu dem Produkt einer Zahl und 5 die Zahl 8 und du erhältst 23. c) Addiere zu einer Zahl 16. Multipliziere die Summe mit 9 und subtrahiere anschlie- Bend 80 und du erhältst als Ergebnis 100. d) Multipliziere eine Zahl mit 5. Subtrahiere von dem Produkt 23. Addiere zu dem Ergebnis das Produkt von 3 und 6 und du erhältst 45. e) Multipliziere eine Zahl mit sich selbst und subtrahiere 1 . Das Ergebnis ist 15. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das in einer Klammer eine weitere Klammer vorkommt, ist neu. Mit den Vorfahrtsregeln lassen sich aber auch solche Rechenausdrücke berechnen. 28 a) (45 - (13 + 25)) • 5 c) (((12+5) • 10) - : 7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Um mehrstellige Zahlen miteinander zu multiplizieren, haben die Menschen vor langer Zeit ein besonderes Verfahren entwickelt. Die Øeløøia-met$oöe 14 Tipp Berechne 74 • 56 Ohne schriftlich multiplizieren zu können, würde man schrittweise rechnen. Man „verteilt" die Zahlen 74-50+74-6 70 • 50 + 4 . 50 3500 + 200 + 70 • 6 + 420 + 24 3500 + 200 + 24 a) Finde heraus, wie die Gelosia-Methode funktioniert. Berechne mit dieser Methode das Produkt 39 • 82. b) Berechne 287 • 57 nach der Gelosia-Methode. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Archäologen sind Forscher, die versuchen herauszufinden, wie Menschen in der Vergan- genheit gelebt haben. Häufig finden sie bei ihren Grabungen Teile menschlicher Skelette. Die Wissenschaftler wollen wissen, wie groß Menschen vor mehreren Tausend Jahren waren. Es gibt eine Formel, mit der man die Größe eines Menschen gut schätzen kann, wenn man die Länge des Oberarmknochens kennt Die Formel ist für Frauen und Män- ner verschieden. Länge des Oberarm- knochens in cm Größe eines Mannes in • 29 + 700) : 10 a) Bei Ausgrabungen wurde ein 26 cm langer Oberarmknochen eines erwachsenen Mannes gefunden. Schätze die Größe des Mannes mit der Formel. Achte bei der Berechnung darauf, dass die Länge des Knochens in cm angegeben werden muss. Die Länge des Mannes ergibt sich dann ebenfalls in cm. Vergleiche die Größe des Mannes mit der Größe eines Mannes heutzutage. b) Bei Frauen muss man die Länge des Oberarmknochens mit 28 multiplizieren, 715 addieren und dann durch 10 dividieren, um die Größe zu schätzen. Schreibe die Angaben als eine Formel (siehe Aufgabe). c) Wie groß war eine Frau, deren Oberarmknochen 25 cm lang war? </t>
   </si>
   <si>
     <t xml:space="preserve">Häufig spricht man im Zusammenhang mit dem Körpergewicht vom „Idealgewicht". Aber nur, weil man nicht das Idealgewicht hat, ist man nicht gleich über- oder unterge- wichtig. Die Berechnung des Idealgewichtes ist bei vielen Fachleuten sehr umstritten. a) Meinst du, dass der Wert des Idealgewichts für alle Menschen gleich ist? Wovon wird er abhängen? b) Mit der folgenden Formel kann man das Idealgewicht einer Frau schätzen, wenn man deren Größe kennt: Größe in cm Idealgewicht in kg— 6 - 450) : 10 c) Berechne das persönliche Idealgewicht für Frauen, die du kennst (wenn diese das möchten). Warum Wird man für Männer und Kinder eine andere Formel benötigen? Kopfübungen 1. In Samuels Klasse gibt es 14 Mädchem Das ist die Hälfte der Klasse. Wie viele Jungen sind in der Klasse? 2. Wie viele Ecken hat ein Parallelogramm? 3. Wandle eine Viertelstunde in Minuten um. Das Buch hat 100 Seiten, auf jeder seite sind 30 Zeilen, in jeder zeile sind ca. 20 Wörter. Erstelle eine Rechenaufgabe. 5. Die Schattenbilder zeigen einen Körper von oben und von vorn. Welcher geometrische Körper könnte es sein? 6. Füge das passende wort (nie, selten, häufig, immer) ein: Heutzutage kann man b) einem Neandertaler begegnen. a) einem Elefanten begegnen. d) schlittschuhlaufen. c) mit Freunden telefonieren. 7. Rico braucht zehn Hefte. Ein Heft kostet einzeln 49 ct. Ein Zehnerpack kostet 3,99 e. Wie viel Geld könnte Rico sparen? </t>
   </si>
   <si>
-    <t xml:space="preserve">Bei den EAN-Nummern sind die Prüfziffern nicht lesbar. Kannst du sie bestimmen? Eine Tabelle wie oben kann helfen. 9 783507 856201 3 433422 405311 4 014361 077021 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Maria ist die Arbeit mit der Tabelle zu aufwändig. Um die fehlende Prüfziffer zu bestim- men, rechnet sie für die EAN-Nummer 400105790611 (vgl. Exkurs): Also ist die Prüfziffer 2. Kannst du Marias Verfahren erklären? Rechne auf dem gleichen Weg für die EAN-Num mern in Aufgabe 22. </t>
   </si>
   <si>
-    <t xml:space="preserve">Berechne die Rechenausdrücke. a) 37 + 14+23 c) 35 + 28- 15+12 Nutze Rechenvorteile. b) 103 + 84+ 47 +6 d) 12+ 14+ 16+16+ 18+20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Du kannst auch versuchen zuerst eine Lösung im Kopf zu berech- nen und dein Ergebnis durch schriftliche Rechnung überprüfen. a) 234 + 5002 + 96 + 3304 b) 345 - 258 + 711 c) 1000- (341 + 205 + 184) d) 99 + 999 + 9999 + 99 999 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ersetze die fehlenden Stellen passend. a) 13 •()4• • 25928 c) — • 6 • 52 5328. 785. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechne möglichst geschickt im Kopf. Welches Gesetz wendest du bei der Rechnung an? a) 17-8 b) 43 • 7 c) 96 d) 132 : 12 e) 12 25 f) 23 • 19 g) 99 • 13 h) 369:9 i) 1785:17 j) 644:7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mache zunächst eine Überschlagsrechnung im Kopf, indem du die Zahlen so rundest, dass man leicht rechnen kann. Rechne dann genau. Schaffst du manche der Aufgaben auch im Kopf? a) 23 • 38 b) 78 • 89 c) 618 • 49 d) 189 • 97 e) 392:7 f) 6489:9 g) 572:11 h) 1904:34 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ein großer Lastwagen verlässt eine Konservenfabrik. Er hat mit- telgroße Dosen mit Erbsen geladen, wie du sie aus dem Super- markt kennst. Die Dosen sind in Kartons verpackt. Auf der Lade fläche sind 25 • 10 • 15 Kartons gestapelt. Berechne die Anzahl der Dosen auf dem Lkw, wenn in jedem Karton 36 Dosen sind. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obwohl bei einem Gewitter Blitz und Donner gleichzeitig ein- treten, hören wir den Donner oft viel spä- ter, als wir den Blitz sehen. Das liegt dar- an, dass der Schall eine Sekunde braucht, um ca. 330 Meter zurückzulegen. a) Evi zählt 13 Sekunden zwischen Blitz und Donner. Wie weit ist das Gewitter von ihr entfernt? b) Wie viele Sekunden nach dem Blitz hört man den Donner eines 5,5 km entfernten Gewitters? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Kinder der 5a planen eine Klassenreise. Sie haben von August bis Mai jeden Monat 5 € gespart. Die 4 Tage in der Jugendherberge und die Anreise kosten für alle 26 Schüler ins- gesamt 1482 €. Wie viel muss jedes Kind noch zuzahlen? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcher Rechenausdruck ergibt die größte Zahl? a) 2+3+4 d) 2-3-4 b) 2. (3+4) e) (23) . 4 (34) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schreibe zu jedem Rechenbaum den zugehörigen Rechenaus druck auf. Rechne. a) 16 4 16 4 b) 29 13 o 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) 9. (36 27) d) 24. (16 5-60) b) 38 19 9 c) (29+35) 15) e) 36:9-4 f) (36+64) • (32 -8-4) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Die Firma „Türauf" hilft, wenn man sich ausgeschlossen oder den Schlüssel verlegt hat. Im Stadtgebiet verlangt die Firma „Türauf" eine Grundgebühr von 55 €. Dafür ist die erste Arbeitsstunde kostenlos. Jede weitere Arbeitsstunde kostet 29 €. Schreibe eine Rechnung, wenn die Firma 1 Stunde (2 Stunden, 4 Stunden) arbeitet. </t>
   </si>
   <si>
-    <t xml:space="preserve">In Deutschland werden die Temperaturen in oc angegeben, in den USA misst man die Temperatur in OF. Mr. Cole schaut mor- gens auf das Thermometer im Hotel und liest 15 oc ab. Er rech net um: Temperatur in OF = Temperatur in oc : 5 9 + 32 a) Schreibe die Umrechnungsformel als Rechenbaum. b) Rechne für Mr. Cole 15 oc in OF um. c) Rechne 20 oc, O OC und 100 oc in OF um. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In der Pause spielen sieben Kinder „Händeschütteln". Jeder gibt jedem die Hand. Wie viele Handschläge sind dies insgesamt? Die Kinder gehen die Sache systematisch an: Bei zwei Personen Iste3ganz kommi eine dritte Person einfach. 1 Handsch hlnzu, 50 bedeufei das Nun kommt eine für/ie Person hinzu. Das bedeute EB/ei zusätzliche Handschläge insge;amf also 1+2=3 Handschläge Trifft eine vier e Person ein kommen 3 Handschläge nzu, insgesamt (1+3=6. a) Schreibe auf, wie es bei fünf, sechs und sieben Personen weitergeht. Zeichne auch die Skizzen dazu. Wie viele Handschläge sind es insgesamt bei sieben Personen? b) Erkennst du eine einfache Regel zum Zählen? Bei wie vielen Personen kommt es zu 55 Handschlägen? Ab wie viel Personen sind es mehr als 100? 1+2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beim Rechnen mit natürlichen Zahlen hast du Zahlen nach bestimmten Eigenschaften zu Zahlenfamilien zusammengefasst. So kennst du z. B. gerade und ungerade Zahlen sowie die 3er-Reihe, 4er-Reihe, aus dem kleinen Einmaleins. a) Wo findest du diese speziellen Zahlen in der Multiplikationstabelle? Übertrage die Tabelle in dein Heft und kennzeichne die Zahlenfamilien jeweils in eigener Farbe. Beschreibe deren Lage in der Tabelle. Findest du noch andere Zahlenfamilien? b) Familien halten zusammen. Wenn du zwei gerade Zahlen addierst, erhältst du wieder eine gerade Zahl, ebenso beim Multipli- zieren. Gilt dies auch für andere Zahlen familien? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auf einem (3x3)-Minischachbrett werden auf den einzelnen Feldern Centtürme aufgebaut. Auf jedem Brett gilt eine spezielle Regel: 1 Cent auf dem 1. Feld, von Feld zu Feld wird die Anzahl der Cent-Münzen verdoppelt. 1 Cent auf dem 1. Feld, von Feld zu Feld wird die Anzahl der Cent-Münzen verdreifacht. 1 Cent auf dem 1. Feld, von Feld zu Feld wird die Anzahl der Cent-Münzen verfünffacht. Welche Höhe hätten jeweils die Türme auf Feld 9? Ein Turm mit zehn Ein-Cent-Münzen ist etwa 13 mm hoch. Schreibe zunächst drei Schätzwerte auf. Zeichne die Spielbretter in dein Heft und trage die passenden Zahlen ein. Berechne dann die jeweiligen Höhen auf dem letzten Feld. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Tabellen lassen sich Zahlen und Daten über- sichtlich darstellen. Mit einem Textverarbeitungs- programm kann man im Computer ganz schnell eine Tabelle erzeugen. Man muss nur die Anzahl der Zeilen und die Anzahl der Spalten eingeben und schon wird die Tabelle automatisch mit der passenden Anzahl von Feldern ausgegeben. a) Wie viele Felder hat eine Tabelle mit vier Zeilen und fünf Spalten? Wie viele Zeilen und Spalten hat eine Tabelle mit 36 Feldern? Gibt es mehrere Möglichkeiten? b) Eine Tabelle mit gleich vielen Zeilen und Spalten heißt quadratische Ta belle. Welche Zahlen kommen für die Anzahl der Felder von quadratischen Tabellen infrage? Schreibe die ersten zehn dieser Quadratzahlen auf Wo findest du Quadratzahlen in der Multi- plikationstabelle von Aufgabe 2? Tabelle einfügen Zeilen nz*l: 4 5 für oc*rnde &amp;eite @ Feste Auto o OptÉnde o OptÉnde C] neue speichen Spalte Zeile Quadratzahlen 104 9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bilde immer die Differenz zweier aufeinander folgender Quadratzahlen. Du erhältst ungerade Zahlen 3, 5, 7, 36 49 64 81 100 121 144 4- 1-3 4 9 16 25 9-4=5 3 5 7 9 11 13 15 17 19 21 23 16 7 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Große Turniere werden im K.o.-System ausgetragen. Wie viele Spieler sind nach der ers- ten, zweiten und dritten Runde noch im Turnier, wenn zu Beginn 128 Spieler antreten? a) Erstelle eine Tabelle mit der Anzahl der Spieler und der Zahl der Spiele pro Runde. b) Wie viele Spiele werden in dem Turnier insgesamt ausgetragen? Lösung: 1. Runde: 2. Runde: 3. Runde: Achtelfinale : Viertelfinale : Halbfinale : Finale : 128 Spieler 64 Spieler 32 Spieler 16 Spieler 8 Spieler 4 Spieler 2 Spieler 64 spiele 32 spiele 16 Spiele 8 Spiele 4 Spiele 2 Spiele 1 spiel 1 Sieger Gesamtzahl der Spiele : 64 + 32 + 16+8+4+2 +1 = 127 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lücken füllen Im Basiswissen sind nur einige Summenzah len, Quadratzahlen und Zweierpotenzzahlen an- gegeben. Vervollständige die Reihe. „Elfte Zahlen" Berechne die 11. Quad ratzahl, Summenzahl und Zweierpotenzzahl. Bei der 11 . Quadratzahl ist das ganz einfach. Warum ist das bei den anderen beiden Zahlen nicht so einfach? Entdeckung an Quadratzahlen Schreibe alle Quadrat zahlen von 112 bis 202 auf. Berechne jeweils die Differenz zweier aufeinander folgender Quadratzahlen. Was stellst du fest? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suche aus dem Zahlensalat alle Summen- zahlen, Quadratzahlen und Zweierpotenz zahlen. Trage die Zahlen in eine Tabelle ein. Achtung, eine Zahl kann mehrere Ei- genschaften haben. ummen- zahlen 21 Anzahl Quadrat' Geierpotenz- zahlen 64 Anzahl zahlen 64 Anzahl C 64 3 48 11 55 25 151 32 9 36 49 00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Summenzahlen (S), die Zweierpotenz- zahlen (P) und die Quadratzahlen (Q) treten zum Wettkampf auf der Zahlengeraden an. Die ersten Sprünge sind auf den Zahlen- strahlen bereits eingezeichnet, nach zehn Schritten ist das Rennen zu Ende. a) Übertrage die Zahlenstrahlen auf Karo- papier und trage die Sprünge bis zum 6. Sprung ein (DIN-A4-Blatt quer). b) Setze die Reportage fort. Wer gewinnt das Rennen, welchen Vorsprung hat der Sieger vor dem Zweit- und Dritt- platzierten? 10 111 10 111 Die Zweierpotenzzahlen haben einen Startvorteit. Im 2. Schritt liegen Zweierpotenzen und Quadratzah- ten gleich auf, dicht gefolgt von den Summenzahten. Im nächsten Schritt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bei den Summenzahlen werden jeweils die ersten aufeinanderfolgenden Zahlen addiert. Welche Zahlen entstehen, wenn man I) nur die ungeraden Zahlen addiert? 2) nur die geraden Zahlen addiert? Kannst du etwas Besonderes feststellen? 20 16 12 9 6 4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unter zwei Zahlen wird jeweils die Diffe renz dieser Zahlen eingetragen. a) In der oberen Reihe der Mauer sind die Zweierpotenzzahlen eingetragen. Übertrage die Mauer in dein Heft. Schreibe in die zweite Mauersteinreihe jeweils die Differenz der darüber lie Subtraktionsmauer mit Zweierpotenzzahlen 2 4 8 16 32 64 128 256 248 • genden Zahlen, ebenso in die dritte und die vierte Reihe. Was beobachtest du? b) Wie verhalten sich die Subtraktionsmauern mit Summenzahlen oder Quadratzahlen beim Bilden der Differenzen? Beschreibe deine Ergebnisse. Subtraktionsmauer mit Summenzahlen 3 6 10 15 21 28 36 45 Subtraktionsmauer mit Quadratzahlen 1 4 9 16 25 36 49 64 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Überprüfe die Aussagen und begründe. Zweierpotenzzahlen Die Zweierpotenzzahlen sind alle gerade. Quadratzahlen Die Quadratzahlen sind abwechselnd ungerade und gerade. Kannst du für die Summenzahlen auch eine Regelmäßigkeit erkennen? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An Hochschulen und Universitäten erforschen Mathematikprofessoren die Zahlen immer wei- ter und genauer. Dabei kam man zu nebenste- hender Vermutung. Kannst du die Vermutung für die Zahlen zwischen 50 und 60 [zwischen 160 und 170] bestätigen? Jede Zahl lässt sich als Summe von höchstens vier Quadratzah len schreiben. 21 12 = 102 + 42 + 22 120 = 152 + 42 + 22 + 22 249 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die ungeraden Zahlen lassen sich als Differenz von zwei Quadrat 16- 9 zahlen schreiben. 13 = 49 - 36 a) Schreibe als Differenz von zwei Quadratzahlen: 23 = 144- 121 81 -225- 144 5 11 15 21 29 31 45 99 b) Findest du auch gerade Zahlen, die sich als Differenz von nur zwei Quadratzahlen schreiben lassen? c) Suche Quadratzahlen, die sich als Differenz zweier anderer Quadratzahlen schrei- ben lassen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Quadratzahl von 13 hat eine merk- würdige Eigenschaft: Findest du noch weitere Quadratzahlen 132= 169 961 -31 mit dieser Eigenschaft? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frau Vogt hat die Geheimzahl ihres Schmucksafes vergessen. Zum Glück liegt ihr noch eine verschlüsselte Notiz vor. Da du die Quadratzahlen gut kennst, kannst du ihr sicher bei der Entschlüsselung helfen. 00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sina Konserven mit Erbsen und Bohnen zu einer Pyramide ge- stapelt. a) Wie viele Dosen Erbsen sind gestapelt? b) Wie hoch ist der Stapel der Bohnendosen, wenn in der untersten Reihe der Pyramide sieben Dosen stehen? Wie viele Bohnen- dosen sind insgesamt gestapelt? Kopfübungen Bestimme alle natürlichen Zahlen, die kleiner als 20 sind und dabei durch 5 ohne 1. Rest teilbar sind. 2. Wie heißen Vierecke, die nur rechte Winkel besitzen? Was passt? „Ein Fußballfeld ist etwa lang."? 3. (1) 100 cm (2) 1 km (3) 100 m (4) 90 min Berechne im Kopf: 317 — 31. 4. 5. Die Schattenbilder zeigen einen Körper von oben und von vorn. Welcher Körper könnte es sein? Die Anzahl der Fahrräder in Deutschland betrug 67 Mio. Stück im Jahr 2005, 68 Mio. 6. Stück im Jahr 2007, 69 Mio. Stück im Jahr 2009 und 70 Mio. Stück im Jahr 2011. Welche Antworten sind richtig: (1) Der Fahrradbestand nahm mit der Zeit ab. (2) Die Anzahl der Fahrräder wuchs pro Jahr um 1 Mio. Stück. (3) Die Anzahl der Fahrräder stieg alle zwei Jahre um 1 Mio. Stück. 7. Der Schulweg von Jonas beträgt von der Wohnung bis zur Schule 4 krn. Mit dem Fahrrad benötigt er dafür 16 Minuten. Wie viel Fahrzeit hat Jonas in einer Woche? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nach welcher Regel werden die Zahlen in dem Dreieck aufgebaut? Übertrage die rechts abgebildete Dreiecksmauer in dein Heft und vervollständige die Eintragungen. Setze das Dreieck um zwei weitere Reihen fort. 121 1331 14 641 1 510105 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schau dir das chinesische Dreieck oben und die Zeichnung links nochmals genau an. Du kannst jetzt herausfinden, wie dort die Zahlen geschrieben werden. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es gibt viele sehr schöne Darstellungen des Pascal'schen Dreiecks. Entwirf ein schönes Dreieck nach deinem Geschmack. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schreibe das Pascal'sche Dreieck in ein Dreiecksmuster. Du kannst dafür eine Kopie des isometrischen Papiers auf dem hinteren Buchdeckel verwenden. a) Färbe nun alle Dreiecke mit ungeraden Zahlen. In dem Bild ist ein Anfang ge- macht, setze es um möglichst viele Zeilen fort. Das Färben der ungeraden Zahlen kannst du sogar vornehmen, ohne die Zahlen in die Dreiecke zu schreiben. Du brauchst 1 1 2 1 1 1 3 3 1 6,11 dabei nur die vier „Färbungsregelrff Beschreibe das entstehende Muster. b) Welches Muster entsteht, wenn du alle Dreiecke mit geraden Zahlen einfärbst oder die ungeraden Zahlen und die geraden Zahlen verschieden einfärbst? c) Wie sehen die Muster aus, wenn man unterschiedliche Darstellungen (Drei- ecke, Quadrate, Sechsecke, ...) für das Pascal'sche Dreieck wie oben einfärbt? Welche Gemeinsamkeiten gibt es? d) Was geschieht, wenn man nur die Zahlen der 3er-Reihe (4er-Reihe, 5er-Reihe, ...) einfärbt? Beobachte, vergleiche und beschreibe. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bei einem Wandertag will die Klassenlehrerin der 5b, Frau Evens, ihre Schülerinnen und Schüler abzählen. Das ist gar nicht so einfach, da alle durcheinander laufen. Gib Frau Evens einen Rat, so dass sie die Schülerinnen und Schüler ihrer Klasse leicht und schnell zählen kann. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betrachtet man die Blütenstände von Pflanzen, so kann man Regelmäßigkeiten entdecken. Die weiße Lichtnelke verzweigt sich dreimal in zwei Äste. Sie verzweigt sich also sehr regelmäßig. Zählt man die Äste von unten beginnend, so erhält man die Zahlenfolge 1, 2, 4, 8. a) Zähle die Äste beim Schleierkraut und beim Kümmel. Welche Zahlenfolge erkennst du? WeiPe Lichtnelke, Schema Schleierkraut Kümmel b) Skizziere die Blütenstände nach den folgenden Beschreibungen. Efeublüte Sie verzweigt sich zweimal in jeweils vier Äste. Wolfsmilchblüte Sie verzweigt sich zweimal, zuerst in vier, dann in jeweils zwei Äste. c) Zeichne eigene regelmäßige Fantasieblüten und erstelle eine Beschreibung. Lies die Beschreibung jemandem in deiner Klasse vor. Gelingt es, die Blüte nach deiner Beschreibung zu skizzieren? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herr Wagner zählt: „4, 8, Hilf Herrn Wagner und zähle weiter. Natürlich könnte Herr Wagner auch noch schneller zählen. Du auch? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In der Pizzeria „da Carlo" hat Pizzabäcker Toni Teig für Pizza vorbereitet und auf Backbleche verteilt. Restaurantchef Carlo sieht die vielen Backbleche, und beginnt zu zählen: 1 plus 2 gleich drei, dazu noch die drei der nächsten Reihe ergibt sechs, dann die nächsten vier ergibt . Hilf Carlo beim Zählen. Wie viele Pizzas sind es insgesamt, wenn Toni eine „Pyramide" mit zehn Reihen aufgestapelt hat? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auf dem karierten Papier deines Mathematikheftes kannst du leicht ein Schachbrettmus- ter zeichnen. Du beginnst mit einem gefärbten (z. B. blauen) Karo in der Mitte. Dann „baust" du in alle Richtungen Karos an und färbst sie in einer anderen Farbe (z. B. rot) usw. Die ersten drei Schritte siehst du hier. -1. Schritt 2. Schritt 3. Schritt • •noc•• • a) Zeichne das Schachbrettmuster in dein Heft. Sei aber fleißiger, als wir es waren, und zeichne das Muster nach insgesamt fünf Schritten. Kannst du vorhersagen, wie vie- le Kästchen lang und breit das Muster wird? b) Mit jedem Schritt muss man mehr Karos färben. Wie viele waren es bei jedem Schritt? Übertrage die Tabelle in dein Heft und ergänze. Schritt 2 3 4 5 90, ¯ Farbe blau rot grün AnzahU 4 8 12 c) Wie viele farbige und wie viele farblose Karos hat das Schachbrettmuster nach jedem Schritt? d) Vergleiche dein Schachbrettmuster mit einem echten Schachbrett. Was stellst du fest? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auch das ist ein Muster: Ohne zu zeichnen kannst du berechnen, wie es weitergeht. Die 3. Zahl ist Die 4. Zahl ist Die 5. Zahl ist 5+2. 4=13 5+4. 4=21 Wir machen einen Sprung: Die 10. Zahl ist 5+9. 4—41 +4 +4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Am Baummuster erkennst du die Folge . Die Zahlen der Folge berechnest 1-3 1. 3 88 1, 3,9. du so: 1 . Zahl 2. Zahl 3. Zahl 4. Zahl 10. Zahl 19683 3 1-38 3 -3 9 .3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An en Dreiec smustern er ennst u die Folge 1, 3, 6, 10 Die Zahlen der Folge berechnest du so: 1. Zahl 2. Zahl 3. Zahl 4. Zahl 10. Zahl 1+2+3+4 1+2+3+...+9+10 3 6 = 10 -55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betrachte noch einmal die Zahlen- und Musterfolgen im Basiswissen auf Seite 96. a) Zeichne jeweils zwei weitere Rechtecks-, Baum- und Dreiecksmuster in dein Heft. Notiere dazu die Zahlenfolgen bis zur 5. Zahl. b) Berechne zu jeder Zahlenfolge die 10. Zahl. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Notiere die ersten sechs Zahlen der Folge. b) Wie lautet die 21 . Zahl der Folge? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zeichne die Musterfolgen ab und ergänze sie um zwei weitere Muster. Welche Zahlen- folgen gehören dazu? Schreibe die ersten fünf Zahlen auf. Berechne dann die 8. Zahl der Folge, ohne das Muster zu zeichnen. c) b) d) o o oo 00 000 0000.. f) o oo oo 000 000 000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erkennst du die Regeln? Manchmal muss man genau hinschauen. Setze jede Zahlen- folge mit fünf weiteren Zahlen fort. i) 17 a) 2, 8, 14, 20, 26, g) 3, 6, 12, 24, 48, b) 1,4, 7, 10, 13, . e) 1,2, 4, 5, 7,8, h) 2, 4, 5, 10, 11, c) 1,2, 5, 10, 17, f) 4, 5, 7, 11, 19, . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erkenne die Rechenregel und rechne soweit zurück, wie es geht. a) 29, 34, 39, 44, 49, c) , 117, 135, 153, 171, 189, . b) ..., 68, 136, 272, 544, 1088, d) ..., 110, 121, 133, 146, 160, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie lautet die 19. Zahl der Folge? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernd geht mit seinem Kollegen Hans ins Lager und zählt die Wäschetrockner: „2, 5, 8, „Du zählst doch viel zu kompliziert", unter- bricht ihn Hans. Wie könnte Hans gerechnet haben, um die Zahl der vorrätigen Wäsche- trockner schnell zu bestimmen? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eine neue Kerze wird angezündet und brennt gleichmäßig nieder a) Wie lange kann die Kerze insgesamt brennen? b) Wie hoch müsste die Kerze zu Beginn sein, wenn sie 24 Stunden lang brennen soll? nndauer in Igesthöhe in 4 24 21 18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennt man die Regel, nach der die Zahlen einer Zahlenfolge berechnet werden, kann man häufig schnell „weit entfernte" Zahlen der Folge berechnen. Finde die Regel und berechne jeweils die 50. und 100. Zahl. a) 2, 5,8, 11, d) 42, 55, 68, 81 Tipp 1. Zahl 7+1-3 b) 8, 13, 18, 23, e) 7, 14, 21, 28,... c) 9, 20, 31, 42,... f) 15, 24, 33, 42, 2. Zahl 7+2-3 3. Zahl 7+3-3 4. Zahl 50. Zahl 154 7+49-3 7 99 • 100. Zahl 304 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betrachte die Musterfolgen. Wie viele Würfel bilden jeweils das 10. Muster? c) b) d) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Erinnere dich an die Zahlen aus dem Dreiecksmuster (Ba siswissen Seite 96). Schreibe die ersten zehn dieser so- genannten Dreieckszahlen auf. b) Die 100. Dreieckszahl wirst du sicher mit großer Ausdauer ermitteln können. Die Griechen kannten aber schon vor mehr als 2000 Jahren einen Trick, wie man die hundertste Drei- eckszahl schnell ausrechnen kann. Versuche den Trick zu entdecken und berechne die 100. Dreieckszahl. 000 0 000 1. Dreieckszahl 1=1. 2. Dreieckszahl 3=2. 3:2 00 000, 3. Dreieckszahl 6=3. '000 0000 0000, 4. o Dreieckszahl 10=4. '0000 "000 00000 eeeeo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">' au zum Beispiel mit Münzen, Unter- legscheiben oder Bonbons legen. Die verwendeten Kreisscheiben müssen nur alle die gleiche Größe haben. Bestimme die Anzahl der Münzen. Rechne geschickt. •v-opfübungen 1. Nenne die kleinste sechsstellige Zahl. 2. Wahr oder falsch: „An der Kreuzung senkrechter Geraden entstehen rechte Winkel." 3. Was kann eine Tonne schwer sein: (1) deine Schultasche (2) ein Pkw (3) der Mond (4) ein Krokodil? 4. Die Kuh Peppy gibt pro Woche 350 Liter Milch. Wie viel Milch wird pro Tag abgemolken? Erstelle eine Rechenaufgabe. 5. Wie viele Würfel werden für den Bau benötigt? 6. Monatliches Taschengeld: Lea 20 €, Jan 24 e, Nele 16 € und Ron 16 €. Wie viel ist es im Durchschnitt? 7. Einem Euro entsprachen einst 1,55 US-Dollar. Wie viel US-Dollar bekäme man bei diesem Wechselkurs für 1000 €? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hast du schon mal probiert, ein Kartenhaus aus Spielkarten zu bauen? Versuche es doch einmal. Wie viele Stockwerke schaffst du? a) Für ein großes Kartenhaus benötigst du viele Spielkarten. Wie viele sind es für 1, 2, 3, 4, 5 Stockwerke? b) Sina erzählt, ihre Tante habe einmal ein Kartenhaus mit zehn Stockwerken gebaut. Wie viele Karten hat sie für das Riesenhaus benötigt? Du kannst die Anzahl berechnen. 1- 6 6 20 3 12 Tipp Die Karten für die Decken und Wände sind verschieden gefärbt Schreibe die Folgen der „roten" Karten und dann die Folge der „blauen" Karten auf. Erkennst du eine Regel? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mit Fünfecken kann man eine interessante Musterfolge bilden. Schreibe die ersten zehn Zahlen der zugehörigen Zahlenfolge auf. o o o o 00 0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zähle in den Figuren jeweils die Zahl der roten Linien (Diagonalen). Wie viele Linien sind wohl in der dritten (neunten) Figur eingezeichnet? 2) 3) 9) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Julius hat die Kombination seines Zahlenschlosses mit drei Zahnrädern vergessen. a) Wie lange dauert es, alle Kombinationen auszuprobieren, wenn jeder Test einer Kombination drei Sekunden dauert? b) Wie lange dauert es, wenn er weiß, dass die beiden letzten Ziffern gleich und von der ersten verschieden sind? </t>
   </si>
   <si>
-    <t xml:space="preserve">Wie lange benötigt ein Computer, alle Kombinationen eines vierstelligen Passwortes (Ziffern, Buchstaben, Umlaute, Groß- und Kleinschreibung, Sonderzeichen) auszupro- bieren, wenn pro Sekunde eine Million Kombinationen getestet werden? Wie lange dauert es bei einem sechsstelligen oder achtstelligen Passwort? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 4 ist Teiler von 12, denn 12 12 ist Vielfaches von 4, denn 12 12 5 ist kein Teiler von 12, denn 12 : 12 ist kein Vielfaches von 5, denn 12=2. 5+2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 ist ein Teiler von 24, denn 24 : 3=8 8 ist ein Teiler von 24, denn 24 : 8=3 Beide Teiler sind erfasst durch 24 = 3 • 8. Also genügen die nebenstehenden Produkte. Gesucht werden alle Teiler von 24. Um alle Teiler zu finden, müsste man alle Produkte aufschreiben. Es geht einfacher. = 2-12 24 1 • 24 = 3-8 =4•6 4, 6, 8, 12, 24} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">erpru e Wie Im Basisussen le Tel ermengen von 12, 8 und 5. Um alle Teiler zu finden musst </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergänze zu Teilermengen. 3-12 4-9 , 16} 15} f) T. = 18, = {1, 2, 3, 4, 6, 9, 12, 18, 36} 36 hat 9 Teiler. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genau so wie Teilermengen gibt es auch Vielfachenmengen. Warum kannst du eine Vielfachenmenge nicht vollständig aufschreiben? Ergänze in deinem Heft. a) VlH12, 36, u, 60, ...} c) V. 42, u, u, 105, ...} b) v, 36, u, u, 90, d) 175, ...} </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es haben sich drei Falschaussagen eingeschlichen. a) 17 teilt 187 d) 15 teilt 195 b) 260 ist Vielfaches von 13 e) 14 teilt 296 c) f) g) 14 teilt 166 nicht h) 5721 ist kein Vielfaches von 3 6 ist Teiler von 154 336 ist Vielfaches von 7 19 teilt 5700 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Bestimme alle Teiler von 27, 29, 83, 84. b) Welche der Zahlen 37, 49, 60, 90, 120 hat die meisten Teiler? c) Klara behauptet: „Die Anzahl der Teiler ist immer gerade." Stimmt das? Oder findest du ein Gegenbeispiel? d) Gibt es Zahlen, die 2, 3 und 5 als Teiler besitzen? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nach der Anzahl der Teiler geordnet ergeben sich jeweils Lösungswörter. a) 33 (S) 49 (0) 17 (R) 81 (T) b) 77 (G) 20 (E) 25 (1) 59 (T) 144 (R) c) 64 (M) 16 (A) 35 (C) 30 (P) 180 (G) 112 (1) 156 (N) Vierermannschaften Für den Sporttag sollen die Schülerinnen und Schüler aller Klassen Vierermannschaften bilden. Bei welchen Klassen gibt es Probleme? Welche Klassen können reine Mädchen- und reine Jungenmannschaften bilden? Klasse Mädchen 16 14 13 15 12 16 15 9 20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Ist 283 durch 3 teilbar? Überprüfe rechnerisch. b) Tim hat gelesen, dass die Quer- summenregel gilt Überprüfe damit die Teilbarkeit durch 3 der Zahlen 123, 491 , 5402, 9735. Quersummenregel Eine Zahl ist durch 3 teilbar, wenn die Quersumme durch 3 teilbar ist. Quersumme von 39: 3 + 9 — 12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Welche der Zahlen sind durch 4, welche sogar durch 8 teilbar? 4224 668 792 900 3454 Welche der Zahlen sind durch 6 teilbar? b) Ergänze eine Ziffer, so dass die Zahl durch 9 teilbar ist. 3172 .99, 25., 7.1, .36, 4.1 Wie kannst du ergänzen, damit die Zahl durch 3, aber nicht durch 9 teilbar ist? Teilbarkeitsregeln Es gibt Regeln, mit denen du Zahlen auf Teilbarkeit prüfen kannst. Dabei unterschei-dest du zwischen Endstellenregeln und Quersummenregeln. Endstellenregeln Eine Zahl ist — durch 2 teilbar, wenn die letzte Ziffer gerade ist (O, 2, 4, 6 oder 8). — durch 4 teilbar, wenn die beiden letzten Ziffern eine durch 4 teilbare Zahl bilden. — durch 5 teilbar, wenn die letzte Ziffer eine O oder 5 ist. — durch 8 teilbar, wenn die letzten drei Ziffern eine durch 8 teilbare Zahl bilden. — durch 10 teilbar, wenn die letzte Ziffer eine O ist. Quersummenregeln Eine Zahl ist — durch 3 teilbar, wenn die Quersumme durch 3 teilbar ist. — durch 9 teilbar, wenn die Quersumme durch 9 teilbar ist. Zusammengesetzte Regel Eine Zahl ist durch 6 teilbar, wenn sie durch 2 und durch 3 teilbar ist. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Finde alle Zahlen zwischen 1 und 100, die genau drei Teiler haben. Die kleinste die ser Zahlen ist 4, denn ihre Teiler sind 1 , 2 und 4. Fällt dir an den Zahlen etwas auf? b) Finde alle Zahlen zwischen 100 und 400, die drei Teiler haben. Die Ergebnisse aus a) können dir helfen. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Erik hat zwei Ziffern seiner Fahrradschlossnummer vergessen. Sie war aber durch 8 teilbar. Wie viele Zahlen muss er probieren? </t>
   </si>
   <si>
-    <t xml:space="preserve">Anna benötigt zum Basteln von Geschenkanhängern gleich lange Schleifenbänder. Ihre Mutter gibt ihr Schleifenbänder zu 18 cm, 24 cm und 36 cm Länge. Beim Zerteilen sollen keine Reste übrig bleiben. Wie lang können die Bänder werden, wenn sie mög- lichst lang, aber auch gleich lang sein sollen? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Tim, Rico und Jenny starten auf der Rennbahn drei Autos gleichzeitig. Tims Wagen fährt eine Runde in 14 Sekunden, Ricos in 28 Sekunden und Jennys in 20 Sekunden. a) Nach welcher Zeit überfahren alle drei Autos wieder gemeinsam die Start-Ziel-Linie? b) Wie viele Runden hat jedes Auto dann zurückgelegt? </t>
   </si>
   <si>
-    <t xml:space="preserve">Suc e unter en ersten 20 Za Findest du die acht Zahlen? Primzahlen en le Za en, le genau zwei Tel er a en. Natürliche Zahlen, die genau zwei Teiler haben, nennt man Primzahlen. Die ersten Primzahlen sind: 2 3 5 7 11 13 17 Die 1 ist eine „Ausnahmezahl". Da sie nur einen Teiler hat, zählt man sie nicht zu den Primzahlen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Wie viele Primzahlen gibt es zwischen 20 und 50, wie viele von 50 bis 70? b) Welche der Zahlen sind Primzahlen? 303 83 695 288 113 495 111 18 Das Sieb des ERATOSTHENES Du möchtest die Primzahlen von 1 bis 100 herausfinden. Dies ist kein Problem, wenn du nach folgendem Verfahren die Primzahlen „heraussiebst"• - Schreibe die Zahlen von 1 bis 100 in eine 10 10 Tabelle auf. — Streiche die Zahl 1. - Streiche die Vielfachen von 2 außer der 2 selbst. — Die 3 ist noch nicht gestrichen. Streiche die Vielfachen der 3 außer der 3 selbst. — Die nächste noch nicht gestrichene Zahl ist die 5. Streiche alle Vielfachen von 5 außer der 5 selbst. — Alle Zahlen, die zum Schluss nicht gestrichen sind, sind Primzahlen. Geschichte der Primzahlen 2 111 21 31 41 51 61 71 81 91 3 13 1 23 33 43 53 63 73 83 93 5 15 1 25 35 45 55 65 75 85 95 7 17 1 27 37 47 67 77 87 97 19 29 39 49 59 69 79 89 99 1 Die Suche nach Primzahlen, die schon die antiken Griechen betrieben, hat bis heute ihre Faszination nicht verloren. Der Grieche ERATOSTHENES, nach dem das Verfah- ren aus Übung 21 benannt ist, lebte im 3. Jh. v. Chr. Gibt es eine EUKLID aus Alexandria hat schon vor mehr als 2300 Jahren größte Primzahl? bewiesen, dass es unendlich viele Primzahlen gibt. Große Primzahlen Jagd nach Primzahlen Es gibt also keine größte Primzahl. Für Mathematiker ist es dennoch ein Sport, die größte bekannte Primzahl zu übertreffen. Ein Mönch namens MERSENNE entwarf eine Formel, mit der man noch heute auf die Jagd nach noch größeren Primzahlen geht: „Subtrahiere 1 von einer Zweierpotenz, deren Exponent eine Primzahl ist." Das Ergebnis ist fast immer eine Primzahl. 2013 wurde bewiesen, dass 257885161 — 1 eine Primzahl ist. Sie hat 17 425170 Stellen. Durch die Computer ist die Jagd zur Leidenschaft geworden. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auf einem großen U-Bahnhof verkehren die Linien A, B, C und D. Morgens um 5 Uhr nimmt die U-Bahn ihren Betrieb auf. Alle vier Linien starten zur gleichen Zeit. Laut Fahr- plan verkehren die Linien in regelmäßigen Abständen, man sagt dazu: Die Züge verkeh- ren in einem bestimmten Takt. Linie A 5:00 6-Minuten- Takt Linie B 5:00 12-Minu ten-Takt Linie C 5:00 8-Minuten- Takt Linie D 5:00 10- Minu- ten-Takt Besonders viele Fahrgäste kann man erwarten, wenn mehrere Züge gleichzeitig abfahren. a) Zu welchen Zeiten fahren alle vier Linien gleichzeitig ab? b) Nach wie viel Minuten fahren die Linien A und C das erste Mal wieder fahrplanmäßig gemeinsam ab? Wann fahren die Linien A, B und C gemeinsam ab? Gemeinsame Vielfache — gemeinsame Teiler - kgV — ggT Gemeinsame Vielfache von 6 und 8 Vielfache von 8 Vielfache von 6 8 16 24 32 40 6 12 18 24 30 36 42 48 54 48 56 98 54 72666 36 60 24, 48, 72, 64 76 32 66 gemeinsame Vielfache von 6 und 8: kleinstes gemeinsames Vielfaches von 6 und 8: Gemeinsame Teiler von 45 und 75 Teilervon45 1359 15 Teilervon 75 135 15 25 gemeinsame Teiler von 45 und 75: 45 75 größter gemeinsamer Teiler von 45 und 75: = 24 9 16 75 25 1, 3, 5, 15 = 15 </t>
-  </si>
-  <si>
     <t xml:space="preserve">a) kgV (2;4) e) ggT (21; 30) i) kgv (6; 9) m)kgv (50; 30) b) ggT (4; 6) f) ggT(49; 28) j) kgv (54; 12) n) ggT (36; 45) c) ggT (5; 15) g) kgv (4; 5) k) kgv (11; 14) o) kgv (72; 48) d) ggT (12; 7) h) kgv (42; 7) l) ggT (6; 50) p) ggT (66; 49) </t>
   </si>
   <si>
-    <t xml:space="preserve">Veras Vater möchte eine Metall- schiene an der Kellerwand be- festigen, die alle 12 cm ein Loch hat. Von der Vormieterin sind noch Dübel mit je 20 cm Abstand in der Wand. Welche von den Dübeln kann Herr Reichel benutzen? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eine Wel e so angezaunt wer en. Die Weide ist 32 m lang und 20 m breit. Die Pfosten sollen überall den gleichen, möglichst großen Abstand haben. In welchem Abstand müssen die Pfosten aufge- stellt werden? Wie viele Pfosten werden benötigt? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Eine Mutter und ihr Sohn gehen nebeneinander spazieren. Dabei macht die Mutter Schritte mit einer Länge von 70 cm. Der Sohn macht entsprechend schnellere Schritte mit einer Länge von 45 cm. a) In welchen Abständen treten sie nebeneinander auf? b) In welchen Abständen treten sie mit dem rechten Fuß nebeneinander auf? </t>
   </si>
   <si>
-    <t xml:space="preserve">" In n einma um sich selbst. Wie lange dauert es bei der Erde? Wie viele Jupitertage entsprechen wie vielen Erdtagen? (ZäC) Zahlen mit genau drei Teilern Cora hat herausgefunden, dass 169 genau drei Teiler besitzt. Finde kleinere Zahlen mit genau drei Teilern. Was fällt dir auf? Kopfübungen 1. 2. 3. 4. 5. 6. 7. Schreibe mit Ziffern: Dreihundertneunundzwanzig Setze richtig fort: Die Geraden a und b im Bild könnten (1) parallel zueinander sein a (2) senkrecht zueinander sein (3) weder parallel noch senkrecht zueinander sein Es ist 10:20 Uhr. Wie spät ist es nach 12 Stunden? Die 36 Kaninchen werden für den Winter auf 9 Käfige verteilt. Erstelle dazu eine Re- chenaufgabe. Welcher geometrische Körper kann gemeint sein: „Er kann geradeaus rollen. In einer Strichliste steht, dass Kinder mit dem Fahrrad zur Schule kommen. Wie viele sind es? Ein Zug legt pro Stunde ca. 70km zurück. Schätze die Länge der Strecke, für die er zweieinhalb Stunden benötigt. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Jan behauptet, dass der größte gemeinsame Teiler zweier verschiedener Primzahlen I ist. Hat er Recht? b) Was gilt für das kgV zweier verschiedener Primzahlen? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) bertrage die Tabelle in dein Heft und erganze. b) Berechne in jeder Zeile das Produkt aus a und b und das Produkt von ggT und kgV. Was fällt dir auf? c) Überprüfe deine Vermutung aus b) mit den Zahlen 60 und 78. Sollte dir nichts aufgefallen sein, so hilft dir der Hinweis auf dem Rand. 2 4 6 6 8 3 6 8 9 12 6 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wir beschäftigen uns mit einem berühm- „Nach meiner Erkenntnis lässt sich ten mathematischen Problem. jede gerade Zahl ab der 6 als Summe CHRISTIAN GOLDBACH schrieb im Jahre von zwei Primzahlen Schreiben." 1 742 einen Brief an den berühmten Mathematiker LEONHARD EULER, der zur damaligen Zeit Professor an der Akademie in Petersburg in Russland war. In sei- nem Brief schrieb GOLDBACH von seiner Vermutung über Primzahlen. Bis heute ist die Vermutung trotz zahlreicher Versuche nicht bewiesen. Versuche, die nächsten geraden Zahlen als Summe zwei- er Primzahlen darzustellen. Für Spezialisten: Stelle die geraden Zahlen zwischen 100 und 1 20 als Summe zweier Primzahlen dar. 5+3 7+3 7+5 14 = I I + 3 = 7 7 16=13+3 18=13+5 Brief von GOLDBACH an EULER LEONHARD EULER (1 707-1783) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Computer rechnet nicht wie wir im Zehnersystem mit den Ziffern O, I, bis 9, sondern übersetzt (codiert) die Zahlen ins Zweiersystem mit nur O und 1 und rechnet mit diesen Nullen und Einsen. Welche Zahl aus dem Zehnersystem wird durch 101 darge- stellt? Jule sagt: „Hier spielen die Einer, Zweier und Vierer eine Rolle. Das ist genauso wie im Zehnersystem mit Einern, Zehnern und Hundertern. so ist doch 247=2. 100+4. 10+7. 1" a) Wie heißen die Zahlen 101, 110, 11, 111 unserem Zehnersystem? b) Welche Vorteile haben die Systeme? Stunden 8 40 020 Minuten 8 0 20 010 ekunden 0 40 0 20 010 und 1010 aus dem Zweiersystem in </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auf dem Wochenmarkt gab es vor einigen Jahren noch alte Waagen, bei denen mit Gewichtsstücken gewogen wurde. Dazu wurden möglichst wenige Gewichtsstücke auf die eine Waagschale und die Ware auf die andere gelegt. Für den Einkauf von 7 kg Erdbeeren (für Marmelade), 4 kg Äpfel, 2 kg Spargel, 1 2 kg Kartoffeln und 3 kg Möhren Ware 4 kg 12kg 3 kg 5 kg O 2 kg 2 1 kg steht in der Tabelle, welche Gewichtsstücke wie oft verwendet wurden. a) Übernimm die Tabelle in dein Heft und ergänze sie für alle Einkäufe. b) Charlotte meint, dass man mit einem Gewichtssatz von fünf Gewichtsstücken besser wiegen kann. Wie kann Charlotte 9kg, 1 7kg, 25 kg, 28kg, 31 kg auswiegen? Lege eine Tabelle an. Charlotte erklärt: „Mit den Gewichtsstücken 1 kg, 2 kg und 4kg kannst du alles bis 7 kg auswiegen. Hast du auch noch die Gewichte 8 kg und 16kg, dann kannst du noch viel mehr auswiegen." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">verwandeln. Stellenwert (111)2 Dua a en ann man mit einer Ste .16+1-8+0 • 1 = 26 enwertta e sc ne 1er In eine Za m Ze nersystem 1 6er 8er 2er . 4+1 • 2+1. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie schreibt man die Zahl 85 als Dualzahl? 85 = I . + 21 1 . 64+0 .32+1-16+5 Man muss bei der Umwandlung die richtigen .4+0-2+1-1 Stellen berücksichtigen. 32+1 32+1 4er .16+0-8+1 .16+0-8+1 2er . 4+1 Stellenwert 128er 64er 32er 16er 8er </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wandle die folgenden Zahlen aus dem Zweiersystem ins Zehnersystem um. a) (11011)2 e) (10101010)2 b) (101)? c) (1 1001100)2 g) (10010010)2 d) (10011)2 h) (10111)2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie werden die folgenden Zahlen im Zweiersystem dargestellt? 16 b) 99 256 c) 11 57 d) 300 120 e) 111 f) 124 100 32 g) 2000 1024 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Man kann mit Glühlampen Dualzahlen darstellen. Wie lauten die Dualzahlen? Wie heißen sie im Zehnersystem? c) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warum kann man Dualzahlen mit Glühlampen darstellen und warum geht dies nicht so einfach mit Zahlen im Zehnersystem? Vielleicht hast du eine Idee, wie man Zahlen aus dem Zehnersystem mit Glühlampen darstellen könnte. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Übertrage die Tabelle in dein Heft. Ergänze die Stellenwerte und übersetze die einge- tragene Zahl ins Zehnersystem. Stelle Stellenwert Zahl 11. 10. 4er 2er 1 er </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie heißt die kleinste und die größte dreistellige (sechsstellige) Zahl im Zehnersystem, wie im Zweiersystem? Übersetze die Dualzahlen ins Zehnersystem. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finde jeweils den Vorgänger und den Nachfolger angegebenen Dualzahlen. Vorgänger zahl Nachfolger (100)2 (1010112 (10110)2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ihr könnt genauso wie Ali, Birgit, Christin, Dario, und Eike „Dualzähler" spielen. Die fünf Kinder stellen sich nebeneinander auf und legen fest, wo der Sechzehner, Achter, Vie- rer, Zweier, Einer ist. Sie zählen im Dualsystem, indem sie für 1 die rechte Hand heben und für O beide Hände unten lassen. 16er Zählen Ali 8er Birgit 4er Christin 2er Dario Eike a) Übertrage die Tabelle in dein Heft und ergänze sie, indem du bis 9 zählst. b) Welches Kind hat am meisten zu tun, welches am wenigsten? c) Spielt „Dualzähler". Welche Gruppe kann am schnellsten im Dualsystem zählen? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dualzahlen werden genauso addiert wie natürliche Zahlen. 1. Zahlen genau untereinander schreiben 2. stellenweise addieren, an den Übertrag denken 8er 4er 2er 1 er Addiere. a) (111)2 d) (101 11)2 + (101)2 b) (101010)2 c) (11011)2 + (10101)2 + (101)2 e) (11011)2 f) (10001)2 + (110)2 + (111)2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wie man Zahlen schriftlich multipliziert, ist dir bekannt. a) Überprüfe deine Fertigkeit, indem du schriftlich 1 7 45 berechnest. b) Multipliziere nach demselben Verfahren zwei Dualzahlen. Überprüfe, ob du richtig gerechnet hast, indem du die Zahlen und 1 Ipp die Ergebnisse aus dem Zweiersystem in das Zehnersystem umwandelst. (101)? • (11)2 (1101)2 • (101)? (11)? • (1 11)2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Weißt du noch was das kleine „Einmaleins" ist? Überprüft eure Fähigkeiten, indem ihr euch gegenseitig Aufgaben zum kleinen Einmaleins stellt. b) Wie sieht das kleine Einmaleins mit Dualzahlen aus? c) Was meint ihr, ist das Rechnen mit Dualzahlen ganz einfach? Andere Stellenwertsysteme In der Vergangenheit haben die Men- schen in verschiedenen Stellenwertsys- temen gerechnet. Vor ungefähr 4000 Jahren verwendeten die Babylonier ein Sechzigersystem. Unsere heutige Zeiteinteilung stammt daher. 1 Stunde = 60 Minuten = 60 • 60 Sekunden Die Gallier rechneten vor ungefähr 2000 Jahren im Zwanzigersystem. Auch heute sagen die Franzosen für 80 quatre-vingt (4 Zwanziger). Das Zwölfersystem wurde ebenfalls oft benutzt. Noch heute kennen wir die Mengen- angabe ein Dutzend (= 12 Stück). Ganz selten, z. B. in Kreuzworträtseln findet man das Gros (1 Gros = 12 Dutzend = 12 • 12 Stück). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verwandle in Sekunden. a) 4 Stunden 35 Minuten 12 Sekunden c) 2 Stunden 45 Sekunden b) 1 2 Stunden 5 Minuten 30 Sekunden d) 1 Stunde 56 Minuten 12 Sekunden e) die Länge eines Schultages von der ersten bis zur sechsten Stunde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In den USA werden Längen in miles, yards, feet und inches gemessen. Zum Umrechnen von einer Einheit in eine andere benötigt man eine spezielle Stellenwerttafel. Stellenwert Zahl • 1760 miles yards (yd) 8 feet (i) 2 • 12 inches (O 11 a) Scott Ernan ist bei einer Leichtathletikveranstaltung in New York 8 yards 2 feet 11 inches weit gesprungen. Wie viel inches beträgt seine Sprungweite? Rechne die Weite in Meter und Zentimeter um. 1 inch ist etwa 2,5 cm. b) Welche Maße würde man bei uns an die Abbildung des Tennisplatzes schreiben? c) In den USA können viele Kinder und Erwachsene nicht gut mit den Längeneinheiten rechnen. Woran könnte das liegen? Römische Zahlzeichen ya s 9 yards Die. Römer hatten kein Stellenwertsystem. Sie verwendeten für 7 ahlen verschie- dene Zeichen, die nach ganz bestimmten Regeln aufgeschrieben (aneinander gereiht) werden. M = 1000 D -500 C = 100 L = 50 Regeln für die römische Zahlschreibweise x = 10 v=5 Wenn der größere Wert vor dem kleinen steht, so wird addiert: Römische Zahlen * 10er System Wenn der kleinere Wert vor dem größeren steht, so wird subtrahiert: CM=M -c = 1000-100=900 10er System * römische Zahlen 2179 M DCC XL 1000 700 40 1748 VIII 8 2000 MM 100 c 70 LXX 9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schreibe mit arabischen Ziffern. a) XII, LX, DCC, MI, DII, CLXVI c) DCCCXX, MDCCCV, MMXLIX b) IX, XC, d) MMXII, LXXIV, ccxL, CML DCCCVIII, DCCLXXVII </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auf vielen Gebäuden sieht man römische Zahlen, die das Erbauungsjahr angeben. a) Wann wurden die abgebildeten Gebäude errichtet? b) Wie könnte eine Inschrift auf einem Haus lauten, das 1843 gebaut und 1907 renoviert wurde? c) Gibt es in deiner Umgebung Häuser, Kirchen oder andere Bauten mit römischen Zahlen? Schreibe die Zahlen ab und übersetze sie. Was könnten sie bedeuten? Berichte in der Klasse von deinen Erkundungen. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auch die alten Römer kannten Würfelspiele. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">oe10en benachbarten Zahlen auf. X XXV XL L LXXXV coqx CCLXV CCCLXXIX D CMXCIX MM Kopfübungen . GibdenWertan•1-1000000+3 • 1000+8-1 2. Beschreibe die Lage der Geraden a, b und c zueinander. 3. Gib das Ergebnis in Stunden und Minuten an: 25 min + 75 min. 4. Gib einen passenden Rechenausdruck an und berechne: Multipliziere die Summe von 17 und 23 mit der Zahl 5. C 5. Welcher geometrische Körper kann gemeint sein: „Mit diesem Körper kann man Mauern bauen."? 6. „Die Polizei hat eine heiße Spur." Wahr oder falsch: Dieser Spruch besagt, dass die Aussicht auf Erfolg bei der Aufklärung einer Tat (A) hoch (B) gering ist. 7. Jonas, Lukas und Markus sollen einen Rasen mähen. Die Jungen teilen sich die Ar- beit und den Lohn von 10 € 50 ct. Bestimme den Geldbetrag, den jeder erhält. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Schreibe deinen Namen in Blindenschrift. b) Schreibe die Zahlen 49 und 2010 in Blindenschrift. Denke daran, dass alle Zahlen mit dem Zahlenzeichen beginnen. c) Versuche das Wort zu entschlüsseln. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erkenne Regelmäßigkeiten in der jeweiligen Zahlenfolge und set- ze sie fort. a) 1,3, 5, 7, 9, . b) 1, 3, 7, 13, 21, c) 1,3, 9, 27, 81, . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2) 3) a) Schaue dir die Abbildungen genau an. Wie könnte die nächste Abbildung aussehen? b) Übertrage die Tabelle in dein Heft und fülle sie aus. 'J"Äbb. Lt"Äbb. Anza blau grün Gesamtanzahl c) Versuche herauszufinden, wie viele von jedem der Felder in Abbildung 8 sein werden. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finde die Anzahl der Punkte. Kannst du eine Regel erkennen? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eine interessante Zahlenfolge sind die Fibonacci-Zahlen. Schaue genau hin. Wie wird die Folge fortgesetzt? Unter der Zahlenfolge, die nach dem Mathematiker Leonardo da Pisa (Fibonacci) be- nannt ist, findest du einen Tipp, wie es weiter gehen könnte. 1 2 3 5 8 13... 1+1=2 1+2—3 2+3-5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Setze die Zahlenfolge um 5 weitere Glieder fort. 1,5, 25, 125, </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bestimme alle Teiler der Zahlen 47, 50, 99, 128 und 198. Eine Zahl fällt auf. Welche könnte gemeint sein? </t>
   </si>
   <si>
-    <t xml:space="preserve">Gib V 2, V 4 und V 8 an. Was fällt dir auf? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Antonia behauptet, dass 364 ein Vielfaches von 13 ist. Stimmt ihre Behauptung? b) Benjamin stellt fest, dass 1001 das Produkt von drei aufein- anderfolgenden Primzahlen ist. Welche sind das? Gib die Teilermenge von 1001 an. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergänze „Teiler", „Vielfaches", „teilt" oder „teilt nicht". a) 62 c) 7 . 105 b) 6 ist ein von 84. d) 84 ist ein von 14. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Überprüfe mit 5 Beispielen die folgende Teilbarkeitsregel: Teilbarkeitsregel zur 9: Eine Zahl ist durch 9 teilbar, wenn ihre Quersumme, das heißt die Summe ihrer Ziffern durch 9 teilbar ist, sonst nicht. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finde mit den Teilbarkeitsregeln die Teiler zwischen 1 und 10 der folgenden Zahlen: a) 444 b) 3474 c) 3480 d) 123450 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Ermittle: b) Ermittle: ggT (1 8, 24) kgv (24,32) (24, kgV(5, 7) kgV(12, 28) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stelle die folgenden Zahlen als Produkt von Primzahlen dar. Da- bei dürfen Primzahlen mehrfach auftreten. a) 63 b) 76 c) 108 d) 101 e) 504 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zwei Zahnräder, von denen das eine 36 Zähne und das andere 30 Zähne hat, greifen ineinander Die Zähne, die sich gerade berühren, sind in der Abbildung markiert. Nach wie viel Umdrehungen der Räder treffen die- se gekennzeichneten Stellen wieder zusammen? O o </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gib jeweils den Wert der angegebenen Ziffer in der Zahl im Zehnersystem an. a) Ziffer 3 in der Zahl 43501 b) Ziffer 6 in der Zahl 5060000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a) Wandle die folgenden Zahlen aus dem Zehnersystem in die entsprechende Zahl im Dualsystem um: 11, 21, 35, 88, 128 b) Wandle die folgenden Zahlen aus dem Dualsystem in die entsprechenden Zahlen im Zehnersystem um: (101 (1001 (11 111 1 (1010101)? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schreibe die folgenden römischen Zahlen um ins Zehnersystem. a) DCXII c) xxxvl b) CDXII d) MMIV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schreibe als römische Zahl: a) 63 b) 555 c) 1648 d) 2020 e) 2494 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welche Zahl ist um 1 kleiner als a) 1000 c) (1000)z b) 9090 d) (10110)z Bei den Zahlen in den Aufgaben c) und d) handelt es sich um Zahlen im Zweiersystem. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">c) (10101)2 + (1 Gib das Ergebnis sowohl im Zweier- als auch Dezimalsystem an. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordne jeweils die Zahl im Dezimalsystem der entsprechenden römischen Zahl zu ohne groß zu rechnen: 157, 355, 1032, 25 MXXXII, XXV, CLVII, CCCLV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In der Tabelle ist die Anzahl der Wildschweine, die Obelix in den vergangenen 6 Wochen erlegt hat, dargestellt. Woche Wildschweine 1 1 2 14 3 21 19 5 27 6 7 a) Übersetze die Tabelle so, dass Römer sie lesen können. b) Stimmt es, dass Obelix CX Wildschweine erlegte? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechne schriftlich. Manchmal musst du in zwei Schritten rechnen. a) 2920 : 8 d) 13-24. 50 g) (3427 + 1397) : (36-27) b) 34 • 76 e) 34567 + 5432 h) 2464:11 : 16 f) (4391 - 3645) • 13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berechne möglichst geschickt im Kopf. Nutze dazu Rechenvorteile aUS. a) 295 + 37 - 95 d) 435 : 3- 135 : 3 g) 32 • 130+ 32 870 b) 213-11 e) 148 + 12 67 h) 4880 : 8 c) 26 +97 + 74 f) 450. 9 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Berechne unter Beachtung der Vorfahrtsregeln. a) 38-4-9 c) (5-11 -10) : 9 e) 58 : 2+ (65 + 23) : 8 g) 4. (50+12-3 36) b) 2-7+3-5-4-6 d) (8+ 13). 6-5 f) (88-33:11): 5 h) [30 - (257 + 23) 141. 17 </t>
   </si>
   <si>
@@ -1728,9 +1287,6 @@
     <t xml:space="preserve">a) 216 : 18 f) 441 : 21 b) 180: 15 c) 273 : 13 d) 544 g) 7216 : 16 h) 1089 : 11 i) 625 : 25 : 17 j) 204 : 14 : 12 </t>
   </si>
   <si>
-    <t>Berechne und mache jeweils die Probe. a) 213 : 8 b) 769 : 3 c) 610 : 23 d) 550 : 12 e) 69 : 14 f) 1200 : 15 405 g) 561 . 19 h) 122 : 12</t>
-  </si>
-  <si>
     <t xml:space="preserve">Miriam lernt in einer Schreinerwerkstatt. Für eine Schranktür benötigt sie 30 Lamellen, die 28 cm lang sind. Sie sägt die Lamellen von 4 m langen Holzleisten ab. a) Wie viele Lamellen kann sie von einer Holzleiste absägen? Welchen Abfall erhält sie? b) Wie viele Holzleisten benötigt sie für alle Lamellen? Berechne die gesamte Abfallmenge. </t>
   </si>
   <si>
@@ -1741,6 +1297,117 @@
   </si>
   <si>
     <t xml:space="preserve"> Berechne die ersten zehn Quadratzahlen. </t>
+  </si>
+  <si>
+    <t>Berechne und mache jeweils die Probe. a) 213 : 8 b) 769 : 3 c) 610 : 23 d) 550 : 12 e) 69 : 14 f) 1200 : 15 - 405 g) 561 * 19 h) 122 : 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berechne die Kubikzahlen: a) 23 b) 33 c) 43 d) 73 e) 103 </t>
+  </si>
+  <si>
+    <t>Berechne möglichst geschickt 3 * 83 + 7 * 83.</t>
+  </si>
+  <si>
+    <t>Berechne den Rechenausdruck (7 + 23) * 5+12.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechenbäume können beim Berechnen von Rechenausdrücken sehr hilfreich sein. Berechne die Rechenausdrücke schrittweise oder mithilfe eines Rechenbaums. Beispiel C kann helfen. a) 17+8-4 c) 33 (16+24) e) (23- 15) * 7+4 g) (19-2-9) * 6 i) b) (29-9) * 6 d) 40,5+3-5 f) 18+9 * 2+23 h) 11-10- 100 (16+4) * (58 - 8) +25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berechne unter Beachtung der Vorfahrtsregeln. a) (17-5+3). 12 c) (16 * 4—6. 9) . 4 — 20 e) (17-8- 99) * (34 - 16 * 2) g) 480-45 - (23 + 12 * 4) b) (104+36 : 6) * 100 d) (204- 11 * 9) : 3+16 f) 33 + (88 - 22 * 2) - (27 - 15) h) 27 * (16 - 9) - (96 - 12 *  8 + 123 </t>
+  </si>
+  <si>
+    <t>Rechne wie im Beispiel. Welche Rechnungen schaffst du im Kopf? a) 68 : 4 d) 126 : 3 g) 95 : 5 b) 69 * 3 e) 212 h) 535 : 5 c) 84 : 6 f) 168 + 12 i) 264 : 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechne möglichst geschickt. Oft ist es sinnvoll, das Verteilungsgesetz anzuwenden. Die Beispiele A und B (Seite 75) können helfen. a) 14 * 23+6 * 23 d) 8 (7+9) g) (24+36) : 6 b) 7 * (34+ 16) e) (20-3) * 9 h) 117:9+153.9 c) 4 * 17+9 * 17+7 * 17 f) 24 * 12-24-2 i) (280-56) : 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überprüfe mit der Stoppuhr, ob du alle Aufgaben aus a) in weniger als 3 Minuten richtig lösen kannst. Wie lange brauchst du für die Aufgaben in b)? a) 16 * 4 + 19 *4 - 13 * 8 + 17-9 - 76:4 * 84:7 b) 23 * 5 +  34 * 7 + 165:5 +  88-3 + 756:7 74-4 + 248 : 8 + 459 : 9 + 126 : 6 + 792 : 8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irina und Robin „basteln" aus Zahlen, Rechen zeichen und Klammern verschiedene Rechen ausdrücke. Sie wollen den Rechenausdruck finden, der die größte Zahl liefert. Welcher ist es? 21-3+17, 17-21 +3, (17+3)*21, (21 + 3)*17 </t>
+  </si>
+  <si>
+    <t>Berechne. (A) Multipliziere die Differenz von 170 und 5 mit der Summe von 18 und 6. (B) Subtrahiere das Produkt von 5 und der Summe von 18 und 6 von 170. (C) Subtrahiere das Produkt von 18 und 5 von 170 und addiere dann 6. (D) Multipliziere die Differenz von 170 und 5 mit 18 und addiere dann 6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das in einer Klammer eine weitere Klammer vorkommt, ist neu. Mit den Vorfahrtsregeln lassen sich aber auch solche Rechenausdrücke berechnen. 28 a) (45 - (13 + 25)) * 5 c) (((12+5) * 10) - 2: 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berechne die Rechenausdrücke. a) 37 + 14+23 c) 35 + 28- 15+12  b) 103 + 84+ 47 +6 d) 12+ 14+ 16+16+ 18+20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du kannst auch versuchen zuerst eine Lösung im Kopf zu berechnen und dein Ergebnis durch schriftliche Rechnung überprüfen. a) 234 + 5002 + 96 + 3304 b) 345 - 258 + 711 c) 1000- (341 + 205 + 184) d) 99 + 999 + 9999 + 99 999 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mache zunächst eine Überschlagsrechnung im Kopf, indem du die Zahlen so rundest, dass man leicht rechnen kann. Rechne dann genau. Schaffst du manche der Aufgaben auch im Kopf? a) 23 * 38 b) 78 * 89 c) 618 * 49 d) 189 * 97 e) 392:7 f) 6489:9 g) 572:11 h) 1904:34 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechne möglichst geschickt im Kopf. Welches Gesetz wendest du bei der Rechnung an? a) 17-8 b) 43 * 7 c) 96 d) 132 : 12 e) 12 25 f) 23 * 19 g) 99 * 13 h) 369:9 i) 1785:17 j) 644:7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein großer Lastwagen verlässt eine Konservenfabrik. Er hat mittelgroße Dosen mit Erbsen geladen, wie du sie aus dem Supermarkt kennst. Die Dosen sind in Kartons verpackt. Auf der Ladefläche sind 25 * 10 * 15 Kartons gestapelt. Berechne die Anzahl der Dosen auf dem Lkw, wenn in jedem Karton 36 Dosen sind. </t>
+  </si>
+  <si>
+    <t>Obwohl bei einem Gewitter Blitz und Donner gleichzeitig eintreten, hören wir den Donner oft viel später, als wir den Blitz sehen. Das liegt daran, dass der Schall eine Sekunde braucht, um ca. 330 Meter zurückzulegen. a) Evi zählt 13 Sekunden zwischen Blitz und Donner. Wie weit ist das Gewitter von ihr entfernt? b) Wie viele Sekunden nach dem Blitz hört man den Donner eines 5,5 km entfernten Gewitters?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Kinder der 5a planen eine Klassenreise. Sie haben von August bis Mai jeden Monat 5 € gespart. Die 4 Tage in der Jugendherberge und die Anreise kosten für alle 26 Schüler insgesamt 1482 €. Wie viel muss jedes Kind noch zuzahlen? </t>
+  </si>
+  <si>
+    <t>Welcher Rechenausdruck ergibt die größte Zahl? a) 2+3+4 d) 2-3-4 b) 2 * (3+4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) 9 * (36 - 27) d) 24* (16+5-60) b) 38 : 19 : 9 c) (29+35) : 15) e) 36:9-4 f) (36+64) * (32 -8-4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Große Turniere werden im K.o.-System ausgetragen. Wie viele Spieler sind nach der ersten, zweiten und dritten Runde noch im Turnier, wenn zu Beginn 128 Spieler antreten? a) Erstelle eine Tabelle mit der Anzahl der Spieler und der Zahl der Spiele pro Runde. b) Wie viele Spiele werden in dem Turnier insgesamt ausgetragen? Lösung: 1. Runde: 2. Runde: 3. Runde: Achtelfinale : Viertelfinale : Halbfinale : Finale : 128 Spieler 64 Spieler 32 Spieler 16 Spieler 8 Spieler 4 Spieler 2 Spieler 64 spiele 32 spiele 16 Spiele 8 Spiele 4 Spiele 2 Spiele 1 spiel 1 Sieger Gesamtzahl der Spiele : 64 + 32 + 16+8+4+2 +1 = 127 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sina Konserven mit Erbsen und Bohnen zu einer Pyramide gestapelt. a) Wie viele Dosen Erbsen sind gestapelt? b) Wie hoch ist der Stapel der Bohnendosen, wenn in der untersten Reihe der Pyramide sieben Dosen stehen? Wie viele Bohnen- dosen sind insgesamt gestapelt? Kopfübungen Bestimme alle natürlichen Zahlen, die kleiner als 20 sind und dabei durch 5 ohne 1. Rest teilbar sind. 2. Wie heißen Vierecke, die nur rechte Winkel besitzen? Was passt? „Ein Fußballfeld ist etwa lang."? 3. (1) 100 cm (2) 1 km (3) 100 m (4) 90 min Berechne im Kopf: 317 — 31. 4. 5. Die Schattenbilder zeigen einen Körper von oben und von vorn. Welcher Körper könnte es sein? Die Anzahl der Fahrräder in Deutschland betrug 67 Mio. Stück im Jahr 2005, 68 Mio. 6. Stück im Jahr 2007, 69 Mio. Stück im Jahr 2009 und 70 Mio. Stück im Jahr 2011. Welche Antworten sind richtig: (1) Der Fahrradbestand nahm mit der Zeit ab. (2) Die Anzahl der Fahrräder wuchs pro Jahr um 1 Mio. Stück. (3) Die Anzahl der Fahrräder stieg alle zwei Jahre um 1 Mio. Stück. 7. Der Schulweg von Jonas beträgt von der Wohnung bis zur Schule 4 krn. Mit dem Fahrrad benötigt er dafür 16 Minuten. Wie viel Fahrzeit hat Jonas in einer Woche? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie lange benötigt ein Computer, alle Kombinationen eines vierstelligen Passwortes (Ziffern, Buchstaben, Umlaute, Groß- und Kleinschreibung, Sonderzeichen) auszuprobieren, wenn pro Sekunde eine Million Kombinationen getestet werden? Wie lange dauert es bei einem sechsstelligen oder achtstelligen Passwort? </t>
+  </si>
+  <si>
+    <t>a) Bestimme alle Teiler von 27, 29, 83, 84. b) Welche der Zahlen 37, 49, 60, 90, 120 hat die meisten Teiler?</t>
+  </si>
+  <si>
+    <t>Nach der Anzahl der Teiler geordnet ergeben sich jeweils Lösungswörter. a) 33 (S) 49 (0) 17 (R) 81 (T) b) 77 (G) 20 (E) 25 (1) 59 (T) 144 (R) c) 64 (M) 16 (A) 35 (C) 30 (P) 180 (G) 112 (I) 156 (N)</t>
+  </si>
+  <si>
+    <t>a) Ist 283 durch 3 teilbar? Überprüfe rechnerisch.</t>
+  </si>
+  <si>
+    <t>4224, 668, 792, 900, 3454 a) Welche der Zahlen sind durch 4, welche sogar durch 8 teilbar?  Welche der Zahlen sind durch 6 teilbar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a) Finde alle Zahlen zwischen 1 und 100, die genau drei Teiler haben. Die kleinste dieser Zahlen ist 4, denn ihre Teiler sind 1 , 2 und 4. Fällt dir an den Zahlen etwas auf? b) Finde alle Zahlen zwischen 100 und 400, die drei Teiler haben. Die Ergebnisse aus a) können dir helfen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna benötigt zum Basteln von Geschenkanhängern gleich lange Schleifenbänder. Ihre Mutter gibt ihr Schleifenbänder zu 18 cm, 24 cm und 36 cm Länge. Beim Zerteilen sollen keine Reste übrig bleiben. Wie lang können die Bänder werden, wenn sie möglichst lang, aber auch gleich lang sein sollen? </t>
+  </si>
+  <si>
+    <t>Wie viele Primzahlen gibt es zwischen 20 und 50, wie viele von 50 bis 70?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veras Vater möchte eine Metallschiene an der Kellerwand befestigen, die alle 12 cm ein Loch hat. Von der Vormieterin sind noch Dübel mit je 20 cm Abstand in der Wand. Welche von den Dübeln kann Herr Reichel benutzen? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Weide soll eingezäunt werden. Die Weide ist 32 m lang und 20 m breit. Die Pfosten sollen überall den gleichen, möglichst großen Abstand haben. In welchem Abstand müssen die Pfosten aufgestellt werden? Wie viele Pfosten werden benötigt? </t>
+  </si>
+  <si>
+    <t>Verwandle in Sekunden. a) 4 Stunden 35 Minuten 12 Sekunden c) 2 Stunden 45 Sekunden b) 1 2 Stunden 5 Minuten 30 Sekunden d) 1 Stunde 56 Minuten 12 Sekunden</t>
+  </si>
+  <si>
+    <t>a) Antonia behauptet, dass 364 ein Vielfaches von 13 ist. Stimmt ihre Behauptung?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechne schriftlich. Manchmal musst du in zwei Schritten rechnen. a) 2920 : 8 d) 13-24 * 50 g) (3427 + 1397) : (36-27) b) 34 * 76 e) 34567 + 5432 h) 2464:11 : 16 f) (4391 - 3645) * 13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berechne möglichst geschickt im Kopf. Nutze dazu Rechenvorteile aUS. a) 295 + 37 - 95 d) 435 : 3- 135 : 3 g) 32 * 130+ 32 : 870 b) 213-11 e) 148 + 12 67 h) 4880 : 8 c) 26 +97 + 74 f) 450 *9 </t>
   </si>
 </sst>
 </file>
@@ -2088,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B725"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>541</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2113,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>542</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2121,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>543</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2137,7 +1804,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>544</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2145,7 +1812,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>545</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2153,7 +1820,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>546</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2169,7 +1836,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>547</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2177,7 +1844,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>548</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2185,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>549</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2289,7 +1956,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>550</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,7 +1964,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>551</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2305,7 +1972,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>552</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,7 +1980,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>553</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2321,7 +1988,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>554</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2329,7 +1996,7 @@
         <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>555</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2353,7 +2020,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>556</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2369,7 +2036,7 @@
         <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>557</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2385,7 +2052,7 @@
         <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>558</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2393,7 +2060,7 @@
         <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>559</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2401,7 +2068,7 @@
         <v>73</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>560</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2409,7 +2076,7 @@
         <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>561</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2441,7 +2108,7 @@
         <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>562</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2449,7 +2116,7 @@
         <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>563</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2465,7 +2132,7 @@
         <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>564</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2473,7 +2140,7 @@
         <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>565</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2481,7 +2148,7 @@
         <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>566</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2489,7 +2156,7 @@
         <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>567</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2505,7 +2172,7 @@
         <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>568</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2513,7 +2180,7 @@
         <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>569</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2521,7 +2188,7 @@
         <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>570</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -2534,4250 +2201,3473 @@
     </row>
     <row r="55" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>24</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>571</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>572</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>573</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>25</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>26</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>27</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>28</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>29</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>30</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>31</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>32</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>33</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>34</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>38</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>39</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>441</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>51</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>52</v>
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>53</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>144</v>
+        <v>208</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>54</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>55</v>
+        <v>453</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>56</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>58</v>
+        <v>455</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>62</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>65</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>67</v>
+        <v>460</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>68</v>
+        <v>461</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>159</v>
+        <v>270</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>69</v>
+        <v>462</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>160</v>
+        <v>271</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>161</v>
+        <v>272</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>163</v>
+        <v>274</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>164</v>
+        <v>275</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>165</v>
+        <v>276</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>166</v>
+        <v>277</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>170</v>
+        <v>281</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>171</v>
+        <v>282</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>173</v>
+        <v>284</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>175</v>
+        <v>286</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>176</v>
+        <v>287</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>186</v>
+        <v>297</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>187</v>
+        <v>298</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>188</v>
+        <v>299</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>190</v>
+        <v>301</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>191</v>
+        <v>302</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>193</v>
+        <v>304</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>194</v>
+        <v>305</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>195</v>
+        <v>306</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>196</v>
+        <v>307</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>198</v>
+        <v>309</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>199</v>
+        <v>310</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>201</v>
+        <v>312</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>203</v>
+        <v>314</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>204</v>
+        <v>315</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>205</v>
+        <v>316</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>207</v>
+        <v>318</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>208</v>
+        <v>319</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>209</v>
+        <v>320</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>210</v>
+        <v>321</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>211</v>
+        <v>322</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>212</v>
+        <v>323</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>213</v>
+        <v>324</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>214</v>
+        <v>325</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>215</v>
+        <v>326</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>216</v>
+        <v>327</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>217</v>
+        <v>328</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>218</v>
+        <v>329</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>219</v>
+        <v>330</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>220</v>
+        <v>331</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>221</v>
+        <v>332</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>223</v>
+        <v>334</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>224</v>
+        <v>335</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>225</v>
+        <v>336</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>226</v>
+        <v>337</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>227</v>
+        <v>338</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>228</v>
+        <v>339</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>229</v>
+        <v>340</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>230</v>
+        <v>341</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>232</v>
+        <v>343</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>233</v>
+        <v>344</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>235</v>
+        <v>346</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>237</v>
+        <v>348</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>238</v>
+        <v>349</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>239</v>
+        <v>350</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>240</v>
+        <v>351</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>241</v>
+        <v>352</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>242</v>
+        <v>353</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>243</v>
+        <v>354</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>244</v>
+        <v>355</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>245</v>
+        <v>356</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>246</v>
+        <v>357</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>247</v>
+        <v>358</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>248</v>
+        <v>359</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>249</v>
+        <v>360</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>251</v>
+        <v>362</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>252</v>
+        <v>363</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>253</v>
+        <v>364</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>255</v>
+        <v>366</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>256</v>
+        <v>367</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>257</v>
+        <v>368</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>258</v>
+        <v>369</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>259</v>
+        <v>370</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>260</v>
+        <v>371</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>261</v>
+        <v>372</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>262</v>
+        <v>373</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>263</v>
+        <v>374</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>265</v>
+        <v>376</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>266</v>
+        <v>377</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>267</v>
+        <v>378</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>268</v>
+        <v>379</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>269</v>
+        <v>380</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>270</v>
+        <v>381</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>271</v>
+        <v>382</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>272</v>
+        <v>383</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>273</v>
+        <v>384</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>274</v>
+        <v>385</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>275</v>
+        <v>386</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>276</v>
+        <v>387</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>277</v>
+        <v>388</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>279</v>
+        <v>390</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>280</v>
+        <v>391</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>281</v>
+        <v>392</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>282</v>
+        <v>393</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>284</v>
+        <v>395</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>285</v>
+        <v>396</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>286</v>
+        <v>397</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>287</v>
+        <v>398</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>288</v>
+        <v>399</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>290</v>
+        <v>401</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>291</v>
+        <v>402</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>292</v>
+        <v>403</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>293</v>
+        <v>404</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>294</v>
+        <v>405</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>295</v>
+        <v>406</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>296</v>
+        <v>407</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>297</v>
+        <v>408</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>298</v>
+        <v>409</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>299</v>
+        <v>410</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>300</v>
+        <v>411</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>301</v>
+        <v>412</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>302</v>
+        <v>413</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>303</v>
+        <v>414</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>304</v>
+        <v>415</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>305</v>
+        <v>416</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>306</v>
+        <v>417</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>307</v>
+        <v>418</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>308</v>
+        <v>419</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>309</v>
+        <v>420</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>310</v>
+        <v>421</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>311</v>
+        <v>422</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>312</v>
+        <v>423</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>313</v>
+        <v>424</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>314</v>
+        <v>425</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>315</v>
+        <v>426</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>316</v>
+        <v>427</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>317</v>
+        <v>428</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>318</v>
+        <v>429</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>319</v>
+        <v>430</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>320</v>
+        <v>431</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>321</v>
+        <v>432</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>322</v>
+        <v>433</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>323</v>
+        <v>434</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>324</v>
+        <v>435</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>325</v>
+        <v>436</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>326</v>
+        <v>437</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>327</v>
+        <v>438</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>329</v>
+        <v>440</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>330</v>
+        <v>441</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>331</v>
+        <v>442</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>332</v>
+        <v>443</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>334</v>
+        <v>445</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>335</v>
+        <v>446</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>336</v>
+        <v>447</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>337</v>
+        <v>448</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>338</v>
+        <v>449</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>339</v>
+        <v>450</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>340</v>
+        <v>451</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>341</v>
+        <v>452</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>342</v>
+        <v>453</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>343</v>
+        <v>454</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>344</v>
+        <v>455</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>345</v>
+        <v>456</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
-        <v>346</v>
+        <v>457</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>347</v>
+        <v>458</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
-        <v>348</v>
+        <v>459</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
-        <v>349</v>
+        <v>460</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
-        <v>350</v>
+        <v>461</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>351</v>
+        <v>462</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
-        <v>352</v>
+        <v>463</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>353</v>
+        <v>464</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>354</v>
+        <v>465</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>355</v>
+        <v>466</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>356</v>
+        <v>467</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>357</v>
+        <v>468</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>358</v>
+        <v>469</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>359</v>
+        <v>470</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>360</v>
+        <v>471</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>361</v>
+        <v>472</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>362</v>
+        <v>473</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>363</v>
+        <v>474</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>364</v>
+        <v>475</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>365</v>
+        <v>476</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>366</v>
+        <v>477</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>367</v>
+        <v>478</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>368</v>
+        <v>479</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>369</v>
+        <v>480</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>370</v>
+        <v>481</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>371</v>
+        <v>482</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>372</v>
+        <v>483</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>373</v>
+        <v>484</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>374</v>
+        <v>485</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>375</v>
+        <v>486</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>376</v>
+        <v>487</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>377</v>
+        <v>488</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>378</v>
+        <v>489</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>379</v>
+        <v>490</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>380</v>
+        <v>491</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>381</v>
+        <v>492</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>382</v>
+        <v>493</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>383</v>
+        <v>494</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>384</v>
+        <v>495</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>385</v>
+        <v>496</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>386</v>
+        <v>497</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>387</v>
+        <v>498</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>388</v>
+        <v>499</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>390</v>
+        <v>501</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>391</v>
+        <v>502</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>392</v>
+        <v>503</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>393</v>
+        <v>504</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>394</v>
+        <v>505</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>395</v>
+        <v>506</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>396</v>
+        <v>507</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>397</v>
+        <v>508</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>398</v>
+        <v>509</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>399</v>
+        <v>510</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>400</v>
+        <v>511</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>401</v>
+        <v>512</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>402</v>
+        <v>513</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>403</v>
+        <v>514</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>404</v>
+        <v>515</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>405</v>
+        <v>516</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>406</v>
+        <v>517</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>407</v>
+        <v>518</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>408</v>
+        <v>519</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>409</v>
+        <v>520</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>410</v>
+        <v>521</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>411</v>
+        <v>522</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>412</v>
+        <v>523</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
-        <v>413</v>
+        <v>524</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>414</v>
+        <v>525</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>415</v>
+        <v>526</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>416</v>
+        <v>527</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>417</v>
+        <v>528</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>418</v>
+        <v>529</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>419</v>
+        <v>530</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>420</v>
+        <v>531</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>421</v>
+        <v>532</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>422</v>
+        <v>533</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>423</v>
+        <v>534</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>424</v>
+        <v>535</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>425</v>
+        <v>536</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>426</v>
+        <v>537</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>427</v>
+        <v>538</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>428</v>
+        <v>539</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>429</v>
+        <v>540</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>430</v>
+        <v>541</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>431</v>
+        <v>542</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>432</v>
+        <v>543</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>433</v>
+        <v>544</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>434</v>
+        <v>545</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>435</v>
+        <v>546</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>436</v>
+        <v>547</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>437</v>
+        <v>548</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>438</v>
+        <v>549</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>439</v>
+        <v>550</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>440</v>
+        <v>551</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>441</v>
+        <v>552</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>442</v>
+        <v>553</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>443</v>
+        <v>554</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>444</v>
+        <v>555</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>445</v>
+        <v>556</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>446</v>
+        <v>557</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>447</v>
+        <v>558</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>448</v>
+        <v>559</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>449</v>
+        <v>560</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>451</v>
+        <v>562</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>452</v>
+        <v>563</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>453</v>
+        <v>564</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>454</v>
+        <v>565</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>455</v>
+        <v>566</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>456</v>
+        <v>567</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>457</v>
+        <v>568</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>458</v>
+        <v>569</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>459</v>
+        <v>570</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>460</v>
+        <v>571</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>461</v>
+        <v>572</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>462</v>
+        <v>573</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>463</v>
+        <v>574</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>464</v>
+        <v>575</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>465</v>
+        <v>576</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>466</v>
+        <v>577</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>467</v>
+        <v>578</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>468</v>
+        <v>579</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>469</v>
+        <v>580</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>470</v>
+        <v>581</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>471</v>
+        <v>582</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>472</v>
+        <v>583</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>473</v>
+        <v>584</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>474</v>
+        <v>585</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>475</v>
+        <v>586</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>476</v>
+        <v>587</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>477</v>
+        <v>588</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>478</v>
+        <v>589</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>479</v>
+        <v>590</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>480</v>
+        <v>591</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>390</v>
+        <v>354</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>481</v>
+        <v>592</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>482</v>
+        <v>593</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>483</v>
+        <v>594</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>484</v>
+        <v>595</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>485</v>
+        <v>596</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>396</v>
+        <v>360</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>487</v>
+        <v>598</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>488</v>
+        <v>599</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>489</v>
+        <v>600</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>399</v>
+        <v>363</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>490</v>
+        <v>601</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>491</v>
+        <v>602</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>492</v>
+        <v>603</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>493</v>
+        <v>604</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>495</v>
+        <v>606</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>496</v>
+        <v>607</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>497</v>
+        <v>608</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>498</v>
+        <v>609</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>499</v>
+        <v>610</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>501</v>
+        <v>612</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>502</v>
+        <v>613</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>503</v>
+        <v>614</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>504</v>
+        <v>615</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>505</v>
+        <v>616</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>506</v>
+        <v>617</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>507</v>
+        <v>618</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>508</v>
+        <v>619</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>509</v>
+        <v>620</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>510</v>
+        <v>621</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>511</v>
+        <v>622</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>512</v>
+        <v>623</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>513</v>
+        <v>624</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>515</v>
+        <v>626</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>516</v>
+        <v>627</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>517</v>
+        <v>628</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>518</v>
+        <v>629</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>519</v>
+        <v>630</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
     </row>
     <row r="464" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>520</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="1">
-        <v>521</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="1">
-        <v>522</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="1">
-        <v>523</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="1">
-        <v>524</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="1">
-        <v>525</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="1">
-        <v>526</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="1">
-        <v>527</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="1">
-        <v>528</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="1">
-        <v>529</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="1">
-        <v>530</v>
-      </c>
-      <c r="B474" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="1">
-        <v>531</v>
-      </c>
-      <c r="B475" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="1">
-        <v>532</v>
-      </c>
-      <c r="B476" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="1">
-        <v>533</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="1">
-        <v>534</v>
-      </c>
-      <c r="B478" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="1">
-        <v>535</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="1">
-        <v>536</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="1">
-        <v>537</v>
-      </c>
-      <c r="B481" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="1">
-        <v>538</v>
-      </c>
-      <c r="B482" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="1">
-        <v>539</v>
-      </c>
-      <c r="B483" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="1">
-        <v>540</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="1">
-        <v>541</v>
-      </c>
-      <c r="B485" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="1">
-        <v>542</v>
-      </c>
-      <c r="B486" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="1">
-        <v>543</v>
-      </c>
-      <c r="B487" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="1">
-        <v>544</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="1">
-        <v>545</v>
-      </c>
-      <c r="B489" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="1">
-        <v>546</v>
-      </c>
-      <c r="B490" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="1">
-        <v>547</v>
-      </c>
-      <c r="B491" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="1">
-        <v>548</v>
-      </c>
-      <c r="B492" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="1">
-        <v>549</v>
-      </c>
-      <c r="B493" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="1">
-        <v>550</v>
-      </c>
-      <c r="B494" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="1">
-        <v>551</v>
-      </c>
-      <c r="B495" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="1">
-        <v>552</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="1">
-        <v>553</v>
-      </c>
-      <c r="B497" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="1">
-        <v>554</v>
-      </c>
-      <c r="B498" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="1">
-        <v>555</v>
-      </c>
-      <c r="B499" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="1">
-        <v>556</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="1">
-        <v>557</v>
-      </c>
-      <c r="B501" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="1">
-        <v>558</v>
-      </c>
-      <c r="B502" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="1">
-        <v>559</v>
-      </c>
-      <c r="B503" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="1">
-        <v>560</v>
-      </c>
-      <c r="B504" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="1">
-        <v>561</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="1">
-        <v>562</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="1">
-        <v>563</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="1">
-        <v>564</v>
-      </c>
-      <c r="B508" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="1">
-        <v>565</v>
-      </c>
-      <c r="B509" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="1">
-        <v>566</v>
-      </c>
-      <c r="B510" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="1">
-        <v>567</v>
-      </c>
-      <c r="B511" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="1">
-        <v>568</v>
-      </c>
-      <c r="B512" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="1">
-        <v>569</v>
-      </c>
-      <c r="B513" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="1">
-        <v>570</v>
-      </c>
-      <c r="B514" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="1">
-        <v>571</v>
-      </c>
-      <c r="B515" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="1">
-        <v>572</v>
-      </c>
-      <c r="B516" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="1">
-        <v>573</v>
-      </c>
-      <c r="B517" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="1">
-        <v>574</v>
-      </c>
-      <c r="B518" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="1">
-        <v>575</v>
-      </c>
-      <c r="B519" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="1">
-        <v>576</v>
-      </c>
-      <c r="B520" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="1">
-        <v>577</v>
-      </c>
-      <c r="B521" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="1">
-        <v>578</v>
-      </c>
-      <c r="B522" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="1">
-        <v>579</v>
-      </c>
-      <c r="B523" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="1">
-        <v>580</v>
-      </c>
-      <c r="B524" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="1">
-        <v>581</v>
-      </c>
-      <c r="B525" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="1">
-        <v>582</v>
-      </c>
-      <c r="B526" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="1">
-        <v>583</v>
-      </c>
-      <c r="B527" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="1">
-        <v>584</v>
-      </c>
-      <c r="B528" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="1">
-        <v>585</v>
-      </c>
-      <c r="B529" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="1">
-        <v>586</v>
-      </c>
-      <c r="B530" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="1">
-        <v>587</v>
-      </c>
-      <c r="B531" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="1">
-        <v>588</v>
-      </c>
-      <c r="B532" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="1">
-        <v>589</v>
-      </c>
-      <c r="B533" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="1">
-        <v>590</v>
-      </c>
-      <c r="B534" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="1">
-        <v>591</v>
-      </c>
-      <c r="B535" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="1">
-        <v>592</v>
-      </c>
-      <c r="B536" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="1">
-        <v>593</v>
-      </c>
-      <c r="B537" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="1">
-        <v>594</v>
-      </c>
-      <c r="B538" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="1">
-        <v>595</v>
-      </c>
-      <c r="B539" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="1">
-        <v>596</v>
-      </c>
-      <c r="B540" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="1">
-        <v>597</v>
-      </c>
-      <c r="B541" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="1">
-        <v>598</v>
-      </c>
-      <c r="B542" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="1">
-        <v>599</v>
-      </c>
-      <c r="B543" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="1">
-        <v>600</v>
-      </c>
-      <c r="B544" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="1">
-        <v>601</v>
-      </c>
-      <c r="B545" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="1">
-        <v>602</v>
-      </c>
-      <c r="B546" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="1">
-        <v>603</v>
-      </c>
-      <c r="B547" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="1">
-        <v>604</v>
-      </c>
-      <c r="B548" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="1">
-        <v>605</v>
-      </c>
-      <c r="B549" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="1">
-        <v>606</v>
-      </c>
-      <c r="B550" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="1">
-        <v>607</v>
-      </c>
-      <c r="B551" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="1">
-        <v>608</v>
-      </c>
-      <c r="B552" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="1">
-        <v>609</v>
-      </c>
-      <c r="B553" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="1">
-        <v>610</v>
-      </c>
-      <c r="B554" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="1">
-        <v>611</v>
-      </c>
-      <c r="B555" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="1">
-        <v>612</v>
-      </c>
-      <c r="B556" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="1">
-        <v>613</v>
-      </c>
-      <c r="B557" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="1">
-        <v>614</v>
-      </c>
-      <c r="B558" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="1">
-        <v>615</v>
-      </c>
-      <c r="B559" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="1">
-        <v>616</v>
-      </c>
-      <c r="B560" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="1">
-        <v>617</v>
-      </c>
-      <c r="B561" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="1">
-        <v>618</v>
-      </c>
-      <c r="B562" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="1">
-        <v>619</v>
-      </c>
-      <c r="B563" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="1">
-        <v>620</v>
-      </c>
-      <c r="B564" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="1">
-        <v>621</v>
-      </c>
-      <c r="B565" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="1">
-        <v>622</v>
-      </c>
-      <c r="B566" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="1">
-        <v>623</v>
-      </c>
-      <c r="B567" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="1">
-        <v>624</v>
-      </c>
-      <c r="B568" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="1">
-        <v>625</v>
-      </c>
-      <c r="B569" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="1">
-        <v>626</v>
-      </c>
-      <c r="B570" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="1">
-        <v>627</v>
-      </c>
-      <c r="B571" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="1">
-        <v>628</v>
-      </c>
-      <c r="B572" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="1">
-        <v>629</v>
-      </c>
-      <c r="B573" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="1">
-        <v>630</v>
-      </c>
-      <c r="B574" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="1">
         <v>631</v>
       </c>
     </row>
-    <row r="576" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="1"/>
-    </row>
-    <row r="577" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="1"/>
-    </row>
-    <row r="578" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="1"/>
-    </row>
-    <row r="579" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="1"/>
-    </row>
-    <row r="580" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="1"/>
-    </row>
-    <row r="581" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="1"/>
-    </row>
-    <row r="582" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="1"/>
-    </row>
-    <row r="583" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="1"/>
-    </row>
-    <row r="584" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="1"/>
-    </row>
-    <row r="585" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="1"/>
-    </row>
-    <row r="586" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="1"/>
-    </row>
-    <row r="587" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="1"/>
-    </row>
-    <row r="588" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="1"/>
-    </row>
-    <row r="589" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="1"/>
-    </row>
-    <row r="590" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="1"/>
-    </row>
-    <row r="591" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="1"/>
-    </row>
-    <row r="592" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="1"/>
-    </row>
-    <row r="593" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="1"/>
-    </row>
-    <row r="594" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="1"/>
-    </row>
-    <row r="595" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="1"/>
-    </row>
-    <row r="596" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="1"/>
-    </row>
-    <row r="597" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="1"/>
-    </row>
-    <row r="598" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="1"/>
-    </row>
-    <row r="599" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="1"/>
-    </row>
-    <row r="600" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="1"/>
+    </row>
+    <row r="466" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="1"/>
+    </row>
+    <row r="467" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="1"/>
+    </row>
+    <row r="468" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="1"/>
+    </row>
+    <row r="469" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="1"/>
+    </row>
+    <row r="470" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="1"/>
+    </row>
+    <row r="471" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="1"/>
+    </row>
+    <row r="472" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="1"/>
+    </row>
+    <row r="473" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="1"/>
+    </row>
+    <row r="474" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="1"/>
+    </row>
+    <row r="475" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="1"/>
+    </row>
+    <row r="476" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="1"/>
+    </row>
+    <row r="477" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="1"/>
+    </row>
+    <row r="478" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="1"/>
+    </row>
+    <row r="479" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="1"/>
+    </row>
+    <row r="480" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="1"/>
+    </row>
+    <row r="481" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="1"/>
+    </row>
+    <row r="482" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="1"/>
+    </row>
+    <row r="483" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="1"/>
+    </row>
+    <row r="484" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="1"/>
+    </row>
+    <row r="485" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="1"/>
+    </row>
+    <row r="486" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="1"/>
+    </row>
+    <row r="487" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="1"/>
+    </row>
+    <row r="488" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="1"/>
+    </row>
+    <row r="489" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" spans="1:1" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="609" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="610" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="611" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
